--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t xml:space="preserve">MIV17737</t>
   </si>
@@ -54,88 +54,145 @@
     <t xml:space="preserve">OTR summary</t>
   </si>
   <si>
+    <t xml:space="preserve">Vehicle detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAE75608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfhbth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfjhnyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Quote Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL &amp; FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miles per annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint. rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total monthly rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popular Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly in advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial maint. rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total initial rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMR21087</t>
   </si>
   <si>
-    <t xml:space="preserve">dfhbth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gfjhnyt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Quote Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL &amp; FRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles per annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly finance rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint. rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total monthly rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial finance rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial maint. rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total initial rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission</t>
+    <t>UTT52648</t>
+  </si>
+  <si>
+    <t>£ 56,125.00</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>Popular Fiat</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>OIJ15436</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>OGV05022</t>
   </si>
 </sst>
 </file>
@@ -233,16 +290,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -284,7 +341,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -319,7 +376,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -354,7 +411,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -386,7 +443,7 @@
       <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -412,15 +469,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,32 +500,38 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1450.22</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="n">
+        <v>46237.5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
+      <c r="I2" s="3" t="n">
+        <v>9247.5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,36 +542,36 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
+      <c r="G4" s="3" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>56125.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,21 +580,21 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>5000.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,20 +603,20 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -563,21 +626,21 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -585,21 +648,21 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -607,21 +670,21 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>5417.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>2000.0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -629,21 +692,21 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -651,21 +714,21 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -673,75 +736,75 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -779,9 +842,9 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,16 +865,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCHQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="BrokerHPNRQuoteNo" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="BrokerPCHQuoteNo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="s" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerBCHQuoteNo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="HPNR_HPNR_QuoteNo" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="BrokerBCHQuoteNo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="HPNR_HPNR_QuoteNo" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t xml:space="preserve">MIV17737</t>
   </si>
@@ -57,7 +56,7 @@
     <t xml:space="preserve">Vehicle detail</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAE75608</t>
+    <t xml:space="preserve">DIB13884</t>
   </si>
   <si>
     <t xml:space="preserve">dfhbth</t>
@@ -72,39 +71,51 @@
     <t xml:space="preserve">VAT</t>
   </si>
   <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Quote Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL &amp; FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miles per annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint. rental</t>
+  </si>
+  <si>
     <t xml:space="preserve">xxx</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer Quote Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL &amp; FRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Contract Hire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles per annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly finance rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint. rental</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total monthly rental</t>
   </si>
   <si>
@@ -135,6 +146,9 @@
     <t xml:space="preserve">Contract mileage</t>
   </si>
   <si>
+    <t xml:space="preserve">5417</t>
+  </si>
+  <si>
     <t xml:space="preserve">Initial finance rental</t>
   </si>
   <si>
@@ -159,48 +173,22 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQ-8088</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMR21087</t>
-  </si>
-  <si>
-    <t>UTT52648</t>
-  </si>
-  <si>
-    <t>£ 56,125.00</t>
-  </si>
-  <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>Popular Fiat</t>
-  </si>
-  <si>
-    <t>REF001</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>Monthly in advance</t>
-  </si>
-  <si>
-    <t>2.00 p</t>
-  </si>
-  <si>
-    <t>OIJ15436</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
-  </si>
-  <si>
-    <t>OGV05022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -281,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,6 +306,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,7 +333,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -376,7 +368,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -405,79 +397,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K40"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,7 +438,7 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1450.22</v>
@@ -531,7 +463,7 @@
         <v>9247.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,13 +483,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>56125.0</v>
+        <v>56125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,13 +497,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>13.0</v>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,21 +512,21 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>5000.0</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>2000.0</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,18 +535,18 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -626,21 +558,21 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -648,21 +580,21 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -670,21 +602,21 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>5417.0</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>2000.0</v>
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -692,21 +624,21 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -714,21 +646,21 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -736,75 +668,66 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>5.0</v>
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>23</v>
+      </c>
+    </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +754,379 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1450.22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>46237.5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>9247.5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>640</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>56125</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -842,9 +1137,9 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +1160,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1450.22</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t xml:space="preserve">MIV17737</t>
   </si>
@@ -180,6 +180,48 @@
   </si>
   <si>
     <t xml:space="preserve">SMR21087</t>
+  </si>
+  <si>
+    <t>III10725</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Popular Fiat</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>5417</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>UMC22302</t>
   </si>
 </sst>
 </file>
@@ -405,11 +447,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,11 +809,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,7 +842,7 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1450.22</v>
@@ -825,7 +867,7 @@
         <v>9247.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,13 +887,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>640</v>
+        <v>640.0</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>56125</v>
+        <v>56125.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,13 +901,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,13 +924,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -924,13 +966,13 @@
         <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,13 +988,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,13 +1010,13 @@
         <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,7 +1054,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>46</v>
@@ -1040,7 +1082,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,7 +1181,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
   <si>
     <t xml:space="preserve">MIV17737</t>
   </si>
@@ -222,6 +222,231 @@
   </si>
   <si>
     <t>UMC22302</t>
+  </si>
+  <si>
+    <t>CFX93872</t>
+  </si>
+  <si>
+    <t>46237.50</t>
+  </si>
+  <si>
+    <t>9247.50</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>56125.00</t>
+  </si>
+  <si>
+    <t>TO-3666</t>
+  </si>
+  <si>
+    <t>FU-5437</t>
+  </si>
+  <si>
+    <t>BC-8569</t>
+  </si>
+  <si>
+    <t>FA-8802</t>
+  </si>
+  <si>
+    <t>JV-6536</t>
+  </si>
+  <si>
+    <t>YO-3382</t>
+  </si>
+  <si>
+    <t>AC-5834</t>
+  </si>
+  <si>
+    <t>DB-8924</t>
+  </si>
+  <si>
+    <t>ES-5382</t>
+  </si>
+  <si>
+    <t>TS-5773</t>
+  </si>
+  <si>
+    <t>ZS-5760</t>
+  </si>
+  <si>
+    <t>LZ-7107</t>
+  </si>
+  <si>
+    <t>QD-9904</t>
+  </si>
+  <si>
+    <t>PO-3115</t>
+  </si>
+  <si>
+    <t>IW-6276</t>
+  </si>
+  <si>
+    <t>QR-3434</t>
+  </si>
+  <si>
+    <t>AE-9726</t>
+  </si>
+  <si>
+    <t>EN-3515</t>
+  </si>
+  <si>
+    <t>KT-5797</t>
+  </si>
+  <si>
+    <t>MB-8651</t>
+  </si>
+  <si>
+    <t>WK-2949</t>
+  </si>
+  <si>
+    <t>CQ-4292</t>
+  </si>
+  <si>
+    <t>QK-1483</t>
+  </si>
+  <si>
+    <t>HC-9876</t>
+  </si>
+  <si>
+    <t>GP-3372</t>
+  </si>
+  <si>
+    <t>TA-0495</t>
+  </si>
+  <si>
+    <t>FI-4440</t>
+  </si>
+  <si>
+    <t>NO-0923</t>
+  </si>
+  <si>
+    <t>LC-9837</t>
+  </si>
+  <si>
+    <t>XB-8342</t>
+  </si>
+  <si>
+    <t>EW-6294</t>
+  </si>
+  <si>
+    <t>PS-2628</t>
+  </si>
+  <si>
+    <t>XL-9911</t>
+  </si>
+  <si>
+    <t>EI-7791</t>
+  </si>
+  <si>
+    <t>EB-6681</t>
+  </si>
+  <si>
+    <t>VRW4625</t>
+  </si>
+  <si>
+    <t>BLP21855</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>FJ-1395</t>
+  </si>
+  <si>
+    <t>YB-5949</t>
+  </si>
+  <si>
+    <t>PMW6029</t>
+  </si>
+  <si>
+    <t>DA-3896</t>
+  </si>
+  <si>
+    <t>PZR0854</t>
+  </si>
+  <si>
+    <t>MC-9873</t>
+  </si>
+  <si>
+    <t>BMH2089</t>
+  </si>
+  <si>
+    <t>ZYF73998</t>
+  </si>
+  <si>
+    <t>Personal Contract Hire</t>
+  </si>
+  <si>
+    <t>GA-8953</t>
+  </si>
+  <si>
+    <t>VB-8038</t>
+  </si>
+  <si>
+    <t>SL-6142</t>
+  </si>
+  <si>
+    <t>ZLI2200</t>
+  </si>
+  <si>
+    <t>NA-7234</t>
+  </si>
+  <si>
+    <t>HMX2416</t>
+  </si>
+  <si>
+    <t>IR-4315</t>
+  </si>
+  <si>
+    <t>IYX7141</t>
+  </si>
+  <si>
+    <t>FJ-5225</t>
+  </si>
+  <si>
+    <t>LEL9543</t>
+  </si>
+  <si>
+    <t>GTK56068</t>
+  </si>
+  <si>
+    <t>JY-3416</t>
+  </si>
+  <si>
+    <t>EAX87490</t>
+  </si>
+  <si>
+    <t>UG-0341</t>
+  </si>
+  <si>
+    <t>SVK6637</t>
+  </si>
+  <si>
+    <t>NYZ74431</t>
+  </si>
+  <si>
+    <t>CV-6215</t>
+  </si>
+  <si>
+    <t>IQD4130</t>
+  </si>
+  <si>
+    <t>KE-3823</t>
+  </si>
+  <si>
+    <t>JNC3825</t>
+  </si>
+  <si>
+    <t>FK-1103</t>
+  </si>
+  <si>
+    <t>JL-2856</t>
+  </si>
+  <si>
+    <t>GSI4656</t>
   </si>
 </sst>
 </file>
@@ -480,32 +705,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>46237.5</v>
+      <c r="G2" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>9247.5</v>
+      <c r="I2" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,14 +749,14 @@
       <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>640</v>
+      <c r="G4" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>56125</v>
+      <c r="I4" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,13 +764,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,13 +787,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,13 +828,13 @@
         <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,13 +850,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,13 +872,13 @@
         <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +916,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>46</v>
@@ -719,7 +944,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,29 +1067,29 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>46237.5</v>
+      <c r="G2" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>9247.5</v>
+      <c r="I2" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>53</v>
@@ -886,14 +1111,14 @@
       <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>640.0</v>
+      <c r="G4" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>56125.0</v>
+      <c r="I4" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCHQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="100">
   <si>
     <t xml:space="preserve">MIV17737</t>
   </si>
@@ -35,9 +35,6 @@
     <t xml:space="preserve">1,148.54</t>
   </si>
   <si>
-    <t xml:space="preserve">LRU46264</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
   <si>
@@ -56,7 +53,190 @@
     <t xml:space="preserve">Vehicle detail</t>
   </si>
   <si>
-    <t xml:space="preserve">DIB13884</t>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Quote Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL &amp; FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miles per annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cash price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance charges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance payable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial cash payment inc. document fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of monthly payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final balloon payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to purchase fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL included? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTK56068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE-3823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JNC3825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9247.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56125.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint. rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total monthly rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popular Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly in advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial maint. rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total initial rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYZ74431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JL-2856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSI4656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR21087</t>
   </si>
   <si>
     <t xml:space="preserve">dfhbth</t>
@@ -65,133 +245,16 @@
     <t xml:space="preserve">gfjhnyt</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Quote Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL &amp; FRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Contract Hire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles per annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly finance rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint. rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total monthly rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popular Fiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly in advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial finance rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial maint. rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total initial rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00 p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RQ-8088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR21087</t>
-  </si>
-  <si>
-    <t>III10725</t>
+    <t>OKN15866</t>
   </si>
   <si>
     <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
   </si>
   <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>5000</t>
@@ -209,24 +272,42 @@
     <t>04/12/2023</t>
   </si>
   <si>
-    <t>Monthly in advance</t>
-  </si>
-  <si>
-    <t>5417</t>
-  </si>
-  <si>
-    <t>2.00 p</t>
+    <t>56125.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>57165.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>56984.99</t>
+  </si>
+  <si>
+    <t>1139.99</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1.00</t>
   </si>
   <si>
     <t>5.00</t>
   </si>
   <si>
-    <t>UMC22302</t>
-  </si>
-  <si>
-    <t>CFX93872</t>
-  </si>
-  <si>
     <t>46237.50</t>
   </si>
   <si>
@@ -236,217 +317,13 @@
     <t>640.00</t>
   </si>
   <si>
-    <t>56125.00</t>
-  </si>
-  <si>
-    <t>TO-3666</t>
-  </si>
-  <si>
-    <t>FU-5437</t>
-  </si>
-  <si>
-    <t>BC-8569</t>
-  </si>
-  <si>
-    <t>FA-8802</t>
-  </si>
-  <si>
-    <t>JV-6536</t>
-  </si>
-  <si>
-    <t>YO-3382</t>
-  </si>
-  <si>
-    <t>AC-5834</t>
-  </si>
-  <si>
-    <t>DB-8924</t>
-  </si>
-  <si>
-    <t>ES-5382</t>
-  </si>
-  <si>
-    <t>TS-5773</t>
-  </si>
-  <si>
-    <t>ZS-5760</t>
-  </si>
-  <si>
-    <t>LZ-7107</t>
-  </si>
-  <si>
-    <t>QD-9904</t>
-  </si>
-  <si>
-    <t>PO-3115</t>
-  </si>
-  <si>
-    <t>IW-6276</t>
-  </si>
-  <si>
-    <t>QR-3434</t>
-  </si>
-  <si>
-    <t>AE-9726</t>
-  </si>
-  <si>
-    <t>EN-3515</t>
-  </si>
-  <si>
-    <t>KT-5797</t>
-  </si>
-  <si>
-    <t>MB-8651</t>
-  </si>
-  <si>
-    <t>WK-2949</t>
-  </si>
-  <si>
-    <t>CQ-4292</t>
-  </si>
-  <si>
-    <t>QK-1483</t>
-  </si>
-  <si>
-    <t>HC-9876</t>
-  </si>
-  <si>
-    <t>GP-3372</t>
-  </si>
-  <si>
-    <t>TA-0495</t>
-  </si>
-  <si>
-    <t>FI-4440</t>
-  </si>
-  <si>
-    <t>NO-0923</t>
-  </si>
-  <si>
-    <t>LC-9837</t>
-  </si>
-  <si>
-    <t>XB-8342</t>
-  </si>
-  <si>
-    <t>EW-6294</t>
-  </si>
-  <si>
-    <t>PS-2628</t>
-  </si>
-  <si>
-    <t>XL-9911</t>
-  </si>
-  <si>
-    <t>EI-7791</t>
-  </si>
-  <si>
-    <t>EB-6681</t>
-  </si>
-  <si>
-    <t>VRW4625</t>
-  </si>
-  <si>
-    <t>BLP21855</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FJ-1395</t>
-  </si>
-  <si>
-    <t>YB-5949</t>
-  </si>
-  <si>
-    <t>PMW6029</t>
-  </si>
-  <si>
-    <t>DA-3896</t>
-  </si>
-  <si>
-    <t>PZR0854</t>
-  </si>
-  <si>
-    <t>MC-9873</t>
-  </si>
-  <si>
-    <t>BMH2089</t>
-  </si>
-  <si>
-    <t>ZYF73998</t>
-  </si>
-  <si>
-    <t>Personal Contract Hire</t>
-  </si>
-  <si>
-    <t>GA-8953</t>
-  </si>
-  <si>
-    <t>VB-8038</t>
-  </si>
-  <si>
-    <t>SL-6142</t>
-  </si>
-  <si>
-    <t>ZLI2200</t>
-  </si>
-  <si>
-    <t>NA-7234</t>
-  </si>
-  <si>
-    <t>HMX2416</t>
-  </si>
-  <si>
-    <t>IR-4315</t>
-  </si>
-  <si>
-    <t>IYX7141</t>
-  </si>
-  <si>
-    <t>FJ-5225</t>
-  </si>
-  <si>
-    <t>LEL9543</t>
-  </si>
-  <si>
-    <t>GTK56068</t>
-  </si>
-  <si>
-    <t>JY-3416</t>
-  </si>
-  <si>
-    <t>EAX87490</t>
-  </si>
-  <si>
-    <t>UG-0341</t>
-  </si>
-  <si>
-    <t>SVK6637</t>
-  </si>
-  <si>
-    <t>NYZ74431</t>
-  </si>
-  <si>
-    <t>CV-6215</t>
-  </si>
-  <si>
-    <t>IQD4130</t>
-  </si>
-  <si>
-    <t>KE-3823</t>
-  </si>
-  <si>
-    <t>JNC3825</t>
-  </si>
-  <si>
-    <t>FK-1103</t>
-  </si>
-  <si>
-    <t>JL-2856</t>
-  </si>
-  <si>
-    <t>GSI4656</t>
+    <t>UKQ29875</t>
+  </si>
+  <si>
+    <t>XS-4582</t>
+  </si>
+  <si>
+    <t>SN-2617</t>
   </si>
 </sst>
 </file>
@@ -536,7 +413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,6 +450,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,7 +481,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -629,26 +510,329 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.55" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -667,10 +851,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -681,56 +865,56 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>130</v>
+      <c r="A2" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,36 +925,36 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,21 +963,21 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,18 +986,18 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -825,21 +1009,21 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -847,21 +1031,21 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -869,21 +1053,21 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -891,21 +1075,21 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -913,21 +1097,21 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -935,66 +1119,66 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1028,11 +1212,11 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1043,56 +1227,56 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,36 +1287,36 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,23 +1325,23 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -1165,18 +1349,18 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1188,21 +1372,21 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1210,21 +1394,21 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1232,21 +1416,21 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1254,21 +1438,21 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1276,21 +1460,21 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1298,75 +1482,75 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1404,39 +1588,39 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="166">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -391,6 +391,138 @@
   </si>
   <si>
     <t>JSA4943</t>
+  </si>
+  <si>
+    <t>QBO87705</t>
+  </si>
+  <si>
+    <t>Personal Contract Purchase</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>XT-5201</t>
+  </si>
+  <si>
+    <t>TC-9653</t>
+  </si>
+  <si>
+    <t>LI-2886</t>
+  </si>
+  <si>
+    <t>XKI1581</t>
+  </si>
+  <si>
+    <t>CM-2825</t>
+  </si>
+  <si>
+    <t>AVK61501</t>
+  </si>
+  <si>
+    <t>LQ-4239</t>
+  </si>
+  <si>
+    <t>GND31870</t>
+  </si>
+  <si>
+    <t>AUDI A1 SPORTBACK (2018 - Current) 25 TFSI S Line 5dr</t>
+  </si>
+  <si>
+    <t>24080.00</t>
+  </si>
+  <si>
+    <t>25120.00</t>
+  </si>
+  <si>
+    <t>19870.83</t>
+  </si>
+  <si>
+    <t>3974.17</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>EI-1480</t>
+  </si>
+  <si>
+    <t>ZGA03646</t>
+  </si>
+  <si>
+    <t>HCI86033</t>
+  </si>
+  <si>
+    <t>QG-0471</t>
+  </si>
+  <si>
+    <t>ZVM75033</t>
+  </si>
+  <si>
+    <t>JF-1550</t>
+  </si>
+  <si>
+    <t>MPR34623</t>
+  </si>
+  <si>
+    <t>VY-7003</t>
+  </si>
+  <si>
+    <t>TPA3288</t>
+  </si>
+  <si>
+    <t>YOJ39203</t>
+  </si>
+  <si>
+    <t>JL-2335</t>
+  </si>
+  <si>
+    <t>QPC3202</t>
+  </si>
+  <si>
+    <t>LCM94095</t>
+  </si>
+  <si>
+    <t>WU-5203</t>
+  </si>
+  <si>
+    <t>QHD03075</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LX-5638</t>
+  </si>
+  <si>
+    <t>JV-6138</t>
+  </si>
+  <si>
+    <t>JE-9700</t>
+  </si>
+  <si>
+    <t>FP-3326</t>
+  </si>
+  <si>
+    <t>QGH08810</t>
+  </si>
+  <si>
+    <t>RJ-1580</t>
+  </si>
+  <si>
+    <t>WXJ61959</t>
+  </si>
+  <si>
+    <t>TD-9577</t>
+  </si>
+  <si>
+    <t>HQ-4457</t>
+  </si>
+  <si>
+    <t>FCP2367</t>
   </si>
 </sst>
 </file>
@@ -596,32 +728,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,13 +773,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -655,13 +787,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,13 +810,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,13 +855,13 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,13 +877,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,13 +899,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,13 +921,13 @@
         <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,13 +941,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,13 +963,13 @@
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,14 +1004,14 @@
       <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="5" t="n">
-        <v>1</v>
+      <c r="B25" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5" t="n">
-        <v>5</v>
+      <c r="D25" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerPCPQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="HPNRBCHQuoteNo" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="BrokerHPNRQuoteNo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BrokerPCHQuoteNo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="BrokerBCHQuoteNo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="HPNR_HPNR_QuoteNo" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="HPNRPCHQuoteNo" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="HPNRBCHQuoteNo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="HPNRHPNRQuoteNo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BrokerHPNRQuoteNo" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="BrokerPCHQuoteNo" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="BrokerBCHQuoteNo" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="123">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -45,16 +46,16 @@
     <t xml:space="preserve">Vehicle detail</t>
   </si>
   <si>
-    <t xml:space="preserve">BGG09269</t>
+    <t xml:space="preserve">WXJ61959</t>
   </si>
   <si>
     <t xml:space="preserve">xxx</t>
   </si>
   <si>
-    <t xml:space="preserve">QE-9733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HLW2668</t>
+    <t xml:space="preserve">HQ-4457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCP2367</t>
   </si>
   <si>
     <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
@@ -195,19 +196,91 @@
     <t xml:space="preserve">APR </t>
   </si>
   <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Commission </t>
   </si>
   <si>
-    <t xml:space="preserve">MIV17737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMK4188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,148.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MHZ09223</t>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZO79069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ-7428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HZQ7701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Security Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Order Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Payment Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Initial Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap Maintenace value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spread rentals initial payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1030.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1572.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFP03549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VR-4591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSM5684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1322.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZDD98666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WW-6018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSA4943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQI40503</t>
   </si>
   <si>
     <t xml:space="preserve">Hire Purchase Non-Regulated</t>
@@ -237,12 +310,6 @@
     <t xml:space="preserve">Final balloon payment </t>
   </si>
   <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">GTK56068</t>
   </si>
   <si>
@@ -252,9 +319,6 @@
     <t xml:space="preserve">JNC3825</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal Contract Hire</t>
-  </si>
-  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
@@ -291,7 +355,7 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">OMI22628</t>
+    <t xml:space="preserve">CPO46301</t>
   </si>
   <si>
     <t xml:space="preserve">EP-3630</t>
@@ -300,229 +364,37 @@
     <t xml:space="preserve">ETX5204</t>
   </si>
   <si>
-    <t xml:space="preserve">Business Contract Hire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR21087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfhbth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gfjhnyt</t>
-  </si>
-  <si>
-    <t>ST-5832</t>
-  </si>
-  <si>
-    <t>RQI40503</t>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>JGG08578</t>
   </si>
   <si>
     <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
   </si>
   <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>Popular Fiat</t>
-  </si>
-  <si>
-    <t>REF001</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>56125.00</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>57165.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>56984.99</t>
-  </si>
-  <si>
-    <t>1139.99</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>46237.50</t>
-  </si>
-  <si>
-    <t>9247.50</t>
-  </si>
-  <si>
-    <t>640.00</t>
-  </si>
-  <si>
-    <t>WW-6018</t>
-  </si>
-  <si>
-    <t>JSA4943</t>
-  </si>
-  <si>
-    <t>QBO87705</t>
-  </si>
-  <si>
-    <t>Personal Contract Purchase</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>2.00 p</t>
-  </si>
-  <si>
-    <t>XT-5201</t>
-  </si>
-  <si>
-    <t>TC-9653</t>
-  </si>
-  <si>
-    <t>LI-2886</t>
-  </si>
-  <si>
-    <t>XKI1581</t>
-  </si>
-  <si>
-    <t>CM-2825</t>
-  </si>
-  <si>
-    <t>AVK61501</t>
-  </si>
-  <si>
-    <t>LQ-4239</t>
-  </si>
-  <si>
-    <t>GND31870</t>
-  </si>
-  <si>
-    <t>AUDI A1 SPORTBACK (2018 - Current) 25 TFSI S Line 5dr</t>
-  </si>
-  <si>
-    <t>24080.00</t>
-  </si>
-  <si>
-    <t>25120.00</t>
-  </si>
-  <si>
-    <t>19870.83</t>
-  </si>
-  <si>
-    <t>3974.17</t>
-  </si>
-  <si>
-    <t>235.00</t>
-  </si>
-  <si>
-    <t>EI-1480</t>
-  </si>
-  <si>
-    <t>ZGA03646</t>
-  </si>
-  <si>
-    <t>HCI86033</t>
-  </si>
-  <si>
-    <t>QG-0471</t>
-  </si>
-  <si>
-    <t>ZVM75033</t>
-  </si>
-  <si>
-    <t>JF-1550</t>
-  </si>
-  <si>
-    <t>MPR34623</t>
-  </si>
-  <si>
-    <t>VY-7003</t>
-  </si>
-  <si>
-    <t>TPA3288</t>
-  </si>
-  <si>
-    <t>YOJ39203</t>
-  </si>
-  <si>
-    <t>JL-2335</t>
-  </si>
-  <si>
-    <t>QPC3202</t>
-  </si>
-  <si>
-    <t>LCM94095</t>
-  </si>
-  <si>
-    <t>WU-5203</t>
-  </si>
-  <si>
-    <t>QHD03075</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LX-5638</t>
-  </si>
-  <si>
-    <t>JV-6138</t>
-  </si>
-  <si>
-    <t>JE-9700</t>
-  </si>
-  <si>
-    <t>FP-3326</t>
-  </si>
-  <si>
-    <t>QGH08810</t>
-  </si>
-  <si>
-    <t>RJ-1580</t>
-  </si>
-  <si>
-    <t>WXJ61959</t>
-  </si>
-  <si>
-    <t>TD-9577</t>
-  </si>
-  <si>
-    <t>HQ-4457</t>
-  </si>
-  <si>
-    <t>FCP2367</t>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>1322.19</t>
+  </si>
+  <si>
+    <t>VF-9645</t>
+  </si>
+  <si>
+    <t>ERD4809</t>
+  </si>
+  <si>
+    <t>XYX79601</t>
+  </si>
+  <si>
+    <t>PV-6536</t>
   </si>
 </sst>
 </file>
@@ -533,7 +405,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -558,6 +430,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -612,7 +491,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,16 +536,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -678,6 +565,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF2A00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -688,11 +635,11 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -728,32 +675,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -787,13 +734,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,13 +757,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,13 +802,13 @@
         <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,13 +824,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,13 +846,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,13 +868,13 @@
         <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,13 +888,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,13 +910,13 @@
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,13 +952,13 @@
         <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,26 +996,140 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1084,13 +1145,182 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1112,44 +1342,115 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,13 +1470,13 @@
         <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,13 +1484,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,13 +1507,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,13 +1552,13 @@
         <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,13 +1574,13 @@
         <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,13 +1596,13 @@
         <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,17 +1612,17 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>65</v>
+      <c r="A17" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>67</v>
+        <v>90</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,13 +1638,13 @@
         <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,17 +1654,17 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,13 +1680,13 @@
         <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1428,7 +1729,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1451,28 +1752,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>72</v>
+      <c r="A2" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -1522,13 +1823,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,13 +1866,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1611,10 +1912,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,13 +1928,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -1649,13 +1950,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -1693,16 +1994,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,7 +2080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1787,10 +2088,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1813,28 +2114,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -1884,13 +2185,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,7 +2216,7 @@
       <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -1928,13 +2229,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1974,10 +2275,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,13 +2291,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -2012,13 +2313,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -2056,16 +2357,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,63 +2450,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>1450.22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BrokerPCPQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="132">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -205,16 +205,19 @@
     <t xml:space="preserve">5.00</t>
   </si>
   <si>
-    <t xml:space="preserve">GZO79069</t>
+    <t xml:space="preserve">HWI61564</t>
   </si>
   <si>
     <t xml:space="preserve">bbb</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ-7428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HZQ7701</t>
+    <t xml:space="preserve">AP-3906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDW9272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
   </si>
   <si>
     <t xml:space="preserve">Required Security Deposit</t>
@@ -238,7 +241,7 @@
     <t xml:space="preserve">Personal Contract Hire</t>
   </si>
   <si>
-    <t xml:space="preserve">35</t>
+    <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">Spread rentals initial payment</t>
@@ -250,25 +253,25 @@
     <t xml:space="preserve">1030.00</t>
   </si>
   <si>
-    <t xml:space="preserve">35000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1572.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFP03549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VR-4591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM5684</t>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1586.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEH95542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GV-6491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSW4253</t>
   </si>
   <si>
     <t xml:space="preserve">Business Contract Hire</t>
   </si>
   <si>
-    <t xml:space="preserve">1322.19</t>
+    <t xml:space="preserve">1326.97</t>
   </si>
   <si>
     <t xml:space="preserve">ZDD98666</t>
@@ -364,37 +367,61 @@
     <t xml:space="preserve">ETX5204</t>
   </si>
   <si>
+    <t>KOU37178</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1705.42</t>
+  </si>
+  <si>
+    <t>VN-3018</t>
+  </si>
+  <si>
+    <t>GEC97028</t>
+  </si>
+  <si>
     <t>1030.00</t>
   </si>
   <si>
-    <t>JGG08578</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+    <t>LHM00384</t>
   </si>
   <si>
     <t>Business Contract Hire</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>1322.19</t>
-  </si>
-  <si>
-    <t>VF-9645</t>
-  </si>
-  <si>
-    <t>ERD4809</t>
-  </si>
-  <si>
-    <t>XYX79601</t>
-  </si>
-  <si>
-    <t>PV-6536</t>
+    <t>1326.97</t>
+  </si>
+  <si>
+    <t>DKD29311</t>
+  </si>
+  <si>
+    <t>UT-5467</t>
+  </si>
+  <si>
+    <t>SD-9058</t>
+  </si>
+  <si>
+    <t>YXP74067</t>
+  </si>
+  <si>
+    <t>BF-9481</t>
+  </si>
+  <si>
+    <t>RM-2727</t>
+  </si>
+  <si>
+    <t>MEA9820</t>
   </si>
 </sst>
 </file>
@@ -636,10 +663,10 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A4:K7 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -998,11 +1025,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="A4:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -1041,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,22 +1082,22 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,13 +1105,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -1093,16 +1120,16 @@
         <v>26</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,14 +1143,15 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1148,10 +1176,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -1182,16 +1210,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="10" t="s">
@@ -1220,22 +1248,22 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="F4" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
@@ -1258,16 +1286,16 @@
         <v>26</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1314,13 +1342,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1348,28 +1376,109 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="E2" s="6"/>
       <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1388,10 +1497,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="A4:K7 D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1425,16 +1534,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -1484,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
@@ -1580,7 +1689,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,10 +1708,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,16 +1722,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,7 +1750,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>46</v>
@@ -1726,10 +1835,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="A4:K7 C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1764,16 +1873,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -1823,13 +1932,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,13 +1975,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1912,10 +2021,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1928,13 +2037,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -1950,13 +2059,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -1994,13 +2103,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>58</v>
@@ -2088,10 +2197,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:K7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2126,16 +2235,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -2185,13 +2294,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,13 +2338,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2275,10 +2384,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,13 +2400,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -2313,13 +2422,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -2357,13 +2466,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>58</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="134">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">1586.42</t>
   </si>
   <si>
-    <t xml:space="preserve">GEH95542</t>
+    <t xml:space="preserve">LHM00384</t>
   </si>
   <si>
     <t xml:space="preserve">GV-6491</t>
@@ -274,7 +274,22 @@
     <t xml:space="preserve">1326.97</t>
   </si>
   <si>
-    <t xml:space="preserve">ZDD98666</t>
+    <t xml:space="preserve">NLT27698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM-2727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA9820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1705.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RQI40503</t>
   </si>
   <si>
     <t xml:space="preserve">WW-6018</t>
@@ -283,12 +298,6 @@
     <t xml:space="preserve">JSA4943</t>
   </si>
   <si>
-    <t xml:space="preserve">RQI40503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
     <t xml:space="preserve">900.00</t>
   </si>
   <si>
@@ -367,7 +376,10 @@
     <t xml:space="preserve">ETX5204</t>
   </si>
   <si>
-    <t>KOU37178</t>
+    <t>OCL84825</t>
+  </si>
+  <si>
+    <t>FPH37326</t>
   </si>
   <si>
     <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
@@ -385,43 +397,37 @@
     <t>1705.42</t>
   </si>
   <si>
-    <t>VN-3018</t>
-  </si>
-  <si>
-    <t>GEC97028</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>LHM00384</t>
-  </si>
-  <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>1326.97</t>
-  </si>
-  <si>
-    <t>DKD29311</t>
-  </si>
-  <si>
-    <t>UT-5467</t>
-  </si>
-  <si>
-    <t>SD-9058</t>
-  </si>
-  <si>
-    <t>YXP74067</t>
-  </si>
-  <si>
-    <t>BF-9481</t>
-  </si>
-  <si>
-    <t>RM-2727</t>
-  </si>
-  <si>
-    <t>MEA9820</t>
+    <t>HHA00654</t>
+  </si>
+  <si>
+    <t>AN-3980</t>
+  </si>
+  <si>
+    <t>QBY83412</t>
+  </si>
+  <si>
+    <t>AED97033</t>
+  </si>
+  <si>
+    <t>KF-0300</t>
+  </si>
+  <si>
+    <t>BOM2619</t>
+  </si>
+  <si>
+    <t>SAY87989</t>
+  </si>
+  <si>
+    <t>YTW56564</t>
+  </si>
+  <si>
+    <t>1827.75</t>
+  </si>
+  <si>
+    <t>ST-5112</t>
+  </si>
+  <si>
+    <t>URD4492</t>
   </si>
 </sst>
 </file>
@@ -575,12 +581,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -663,10 +669,10 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A4:K7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1026,10 +1032,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="A4:K7"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -1176,10 +1182,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:K7"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>60</v>
@@ -1230,7 +1236,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="4" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -1295,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,13 +1319,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1345,10 +1351,10 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:K7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1375,21 +1381,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>128</v>
+      <c r="A2" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="6"/>
       <c r="K2" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,13 +1429,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -1465,13 +1471,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1503,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="A4:K7 D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1522,28 +1528,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -1593,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
@@ -1689,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,10 +1714,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,17 +1727,17 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>90</v>
+      <c r="A17" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,8 +1755,8 @@
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>94</v>
+      <c r="C19" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>46</v>
@@ -1763,7 +1769,7 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1835,10 +1841,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="A4:K7 C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1861,28 +1867,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>95</v>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -1938,7 +1944,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,13 +1981,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2021,10 +2027,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,13 +2043,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -2059,13 +2065,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -2103,13 +2109,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>58</v>
@@ -2197,10 +2203,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:K7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2223,28 +2229,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
@@ -2300,7 +2306,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,13 +2344,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2384,10 +2390,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,13 +2406,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -2422,13 +2428,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>7</v>
@@ -2466,13 +2472,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>58</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCHFunderQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="153">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -48,258 +48,282 @@
     <t xml:space="preserve">Vehicle detail</t>
   </si>
   <si>
+    <t xml:space="preserve">GTE59452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE-9799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSW4253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Quote Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Security Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Order Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Payment Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Initial Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap Maintenace value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spread rentals initial payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miles per annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">823.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder Specific Expiry Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSG41320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JE-9857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHR0646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Finance Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Contract Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1030.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1827.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTR summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WXJ61959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ-4457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCP2367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9247.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL &amp; FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56125.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly total rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popular Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cash price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57165.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of monthly payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional final payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to purchase fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL included? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile – total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWI61564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-3906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDW9272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1586.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">LHM00384</t>
   </si>
   <si>
-    <t xml:space="preserve">bbb</t>
-  </si>
-  <si>
     <t xml:space="preserve">GV-6491</t>
   </si>
   <si>
-    <t xml:space="preserve">PSW4253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Quote Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Security Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Order Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Payment Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Initial Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Required </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap Maintenace value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Contract Hire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spread rentals initial payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1030.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles per annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly finance rental</t>
-  </si>
-  <si>
     <t xml:space="preserve">1326.97</t>
   </si>
   <si>
-    <t xml:space="preserve">Funder Specific Expiry Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSG41320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JE-9857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHR0646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Finance Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Contract Purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1827.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTR summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WXJ61959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ-4457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCP2367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46237.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9247.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL &amp; FRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56125.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly total rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popular Fiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cash price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash deposit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance to finance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57165.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of monthly payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional final payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option to purchase fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL included? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00 p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile – total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HWI61564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-3906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDW9272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Contract Hire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1586.42</t>
-  </si>
-  <si>
     <t xml:space="preserve">LBU85843</t>
   </si>
   <si>
@@ -403,15 +427,76 @@
   </si>
   <si>
     <t xml:space="preserve">ETX5204</t>
+  </si>
+  <si>
+    <t>LR-4095</t>
+  </si>
+  <si>
+    <t>XMD7164</t>
+  </si>
+  <si>
+    <t>05/12/23</t>
+  </si>
+  <si>
+    <t>28.61</t>
+  </si>
+  <si>
+    <t>TBP61245</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>960.90</t>
+  </si>
+  <si>
+    <t>IK-1815</t>
+  </si>
+  <si>
+    <t>KCQ8030</t>
+  </si>
+  <si>
+    <t>DOM35875</t>
+  </si>
+  <si>
+    <t>IF-9315</t>
+  </si>
+  <si>
+    <t>KUN51746</t>
+  </si>
+  <si>
+    <t>JY-7437</t>
+  </si>
+  <si>
+    <t>SDC9809</t>
+  </si>
+  <si>
+    <t>TUO57078</t>
+  </si>
+  <si>
+    <t>UA-8936</t>
+  </si>
+  <si>
+    <t>WVV2223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -506,7 +591,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,7 +612,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,7 +624,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,11 +632,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,19 +743,19 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="K1:K2 K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,27 +782,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,60 +814,60 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,23 +875,23 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="H6" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>141</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -825,18 +914,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,84 +942,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="F1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>33</v>
+      <c r="A2" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J4" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,21 +1027,21 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -978,15 +1067,15 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="K1:K2 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="16.53" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,12 +1092,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="F1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="4"/>
       <c r="K1" s="3" t="s">
         <v>5</v>
@@ -1017,72 +1106,72 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,21 +1180,21 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,21 +1203,21 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>56</v>
+      <c r="A9" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -1140,83 +1229,83 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
+      <c r="A11" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>62</v>
+      <c r="A13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>65</v>
+      <c r="A15" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>68</v>
+      <c r="A17" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,38 +1316,38 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
+      <c r="A21" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,44 +1357,44 @@
       <c r="D22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>79</v>
+      <c r="A23" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>81</v>
+      <c r="A25" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1341,10 +1430,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="K1:K2 H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1367,23 +1456,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,60 +1480,60 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,17 +1543,17 @@
       <c r="D6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -1491,17 +1580,17 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="K1:K2 A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,27 +1614,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,60 +1646,60 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,23 +1707,23 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="H6" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1657,18 +1746,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,78 +1774,78 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>90</v>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="J4" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,21 +1853,21 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1804,15 +1893,15 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="K1:K2 D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,84 +1918,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="F1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>106</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,21 +2004,21 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,70 +2027,70 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
+      <c r="A9" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
+      <c r="A11" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
+      <c r="A13" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -2009,16 +2098,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,22 +2117,22 @@
       <c r="D16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>102</v>
+      <c r="A17" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2051,16 +2140,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,22 +2159,22 @@
       <c r="D20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>74</v>
+      <c r="A21" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2093,21 +2182,21 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2142,16 +2231,16 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="K1:K2 C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,84 +2257,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="F1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>107</v>
+      <c r="A2" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,21 +2343,21 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,18 +2366,18 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>111</v>
+      <c r="A9" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -2299,177 +2388,177 @@
       <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
+      <c r="A11" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>62</v>
+      <c r="A13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>115</v>
+      <c r="A15" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>118</v>
+      <c r="A17" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>77</v>
+      <c r="A19" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>120</v>
+      <c r="A21" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>121</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2504,16 +2593,16 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K1:K2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,84 +2619,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="F1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,21 +2705,21 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2640,18 +2729,18 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>111</v>
+      <c r="A9" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -2662,186 +2751,186 @@
       <c r="D10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
+      <c r="A11" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>62</v>
+      <c r="A13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>115</v>
+      <c r="A15" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>118</v>
+      <c r="A17" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>77</v>
+      <c r="A19" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>120</v>
+      <c r="A21" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>121</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="HPNRBCHFunderQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="HPNRPCPQuoteNo" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="BrokerPCPQuoteNo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="HPNRPCHQuoteNo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="HPNRBCHQuoteNo" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="HPNRHPNRQuoteNo" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="BrokerHPNRQuoteNo" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="BrokerPCHQuoteNo" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="BrokerBCHQuoteNo" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="HPNRPCHFunderQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="HPNRBCHFunderQuoteNo" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="HPNRPCPQuoteNo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BrokerPCPQuoteNo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="HPNRPCHQuoteNo" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="HPNRBCHQuoteNo" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="HPNRHPNRQuoteNo" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="BrokerHPNRQuoteNo" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="BrokerPCHQuoteNo" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BrokerBCHQuoteNo" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="168">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -48,279 +49,291 @@
     <t xml:space="preserve">Vehicle detail</t>
   </si>
   <si>
-    <t xml:space="preserve">GTE59452</t>
+    <t xml:space="preserve">ETK52517</t>
   </si>
   <si>
     <t xml:space="preserve">bbb</t>
   </si>
   <si>
-    <t xml:space="preserve">HE-9799</t>
+    <t xml:space="preserve">UA-8936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WVV2223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Quote Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Security Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Order Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Payment Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Initial Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap Maintenace value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spread rentals initial payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vgfvf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miles per annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1151.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUO57078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Contract Hire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder Specific Expiry Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSG41320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JE-9857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHR0646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Finance Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Contract Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1030.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1827.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTR summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WXJ61959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ-4457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCP2367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9247.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL &amp; FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56125.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly total rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popular Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cash price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57165.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of monthly payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional final payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to purchase fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL included? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile – total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HWI61564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP-3906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDW9272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1586.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHM00384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GV-6491</t>
   </si>
   <si>
     <t xml:space="preserve">PSW4253</t>
   </si>
   <si>
-    <t xml:space="preserve">05/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Quote Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Security Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Order Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Payment Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Initial Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance Required </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap Maintenace value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Contract Hire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spread rentals initial payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miles per annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly finance rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">823.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder Specific Expiry Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSG41320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JE-9857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHR0646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Finance Deposit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Contract Purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1030.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1827.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTR summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WXJ61959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ-4457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCP2367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46237.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9247.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL &amp; FRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56125.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly total rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popular Fiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cash price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash deposit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance to finance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57165.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of monthly payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional final payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option to purchase fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL included? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00 p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile – total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HWI61564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP-3906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDW9272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Contract Hire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1586.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LHM00384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GV-6491</t>
-  </si>
-  <si>
     <t xml:space="preserve">1326.97</t>
   </si>
   <si>
@@ -429,64 +442,97 @@
     <t xml:space="preserve">ETX5204</t>
   </si>
   <si>
-    <t>LR-4095</t>
-  </si>
-  <si>
-    <t>XMD7164</t>
-  </si>
-  <si>
     <t>05/12/23</t>
   </si>
   <si>
     <t>28.61</t>
   </si>
   <si>
-    <t>TBP61245</t>
+    <t>WSQ54415</t>
   </si>
   <si>
     <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
   </si>
   <si>
+    <t>Personal Contract Hire</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>1151.47</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>QZL77056</t>
+  </si>
+  <si>
+    <t>1750.47</t>
+  </si>
+  <si>
+    <t>CGL01143</t>
+  </si>
+  <si>
     <t>Business Contract Hire</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>960.90</t>
-  </si>
-  <si>
-    <t>IK-1815</t>
-  </si>
-  <si>
-    <t>KCQ8030</t>
-  </si>
-  <si>
-    <t>DOM35875</t>
-  </si>
-  <si>
-    <t>IF-9315</t>
-  </si>
-  <si>
-    <t>KUN51746</t>
-  </si>
-  <si>
-    <t>JY-7437</t>
-  </si>
-  <si>
-    <t>SDC9809</t>
-  </si>
-  <si>
-    <t>TUO57078</t>
-  </si>
-  <si>
-    <t>UA-8936</t>
-  </si>
-  <si>
-    <t>WVV2223</t>
+    <t>1460.77</t>
+  </si>
+  <si>
+    <t>DSM42341</t>
+  </si>
+  <si>
+    <t>LU-5280</t>
+  </si>
+  <si>
+    <t>GIV3633</t>
+  </si>
+  <si>
+    <t>GJW14277</t>
+  </si>
+  <si>
+    <t>GO-3449</t>
+  </si>
+  <si>
+    <t>JIY1549</t>
+  </si>
+  <si>
+    <t>QWF65853</t>
+  </si>
+  <si>
+    <t>LT-5774</t>
+  </si>
+  <si>
+    <t>JR-5482</t>
+  </si>
+  <si>
+    <t>XHW0052</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>NFB02650</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1586.42</t>
+  </si>
+  <si>
+    <t>IX-6819</t>
+  </si>
+  <si>
+    <t>CZX7966</t>
   </si>
 </sst>
 </file>
@@ -743,11 +789,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="1" sqref="K1:K2 K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -782,27 +828,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,13 +889,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
@@ -867,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,19 +931,391 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1450.22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -914,13 +1332,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1:K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -943,7 +1534,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -951,16 +1542,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
@@ -981,7 +1572,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -998,19 +1589,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -1019,7 +1610,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,13 +1626,13 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1067,10 +1658,10 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="K1:K2 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1093,7 +1684,7 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -1106,32 +1697,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,16 +1739,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1165,7 +1756,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
@@ -1194,7 +1785,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,16 +1799,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -1230,16 +1821,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,13 +1843,13 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>31</v>
@@ -1274,16 +1865,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,16 +1887,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,16 +1907,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,16 +1929,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,16 +1949,16 @@
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,16 +1971,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,156 +2013,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="K1:K2 H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1580,18 +2021,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="K1:K2 A4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1607,42 +2040,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
-        <v>11</v>
+      <c r="K2" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -1675,13 +2100,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
@@ -1693,13 +2118,13 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,24 +2132,21 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="12"/>
-      <c r="H6" s="8" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1746,13 +2168,182 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1:K2"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1780,16 +2371,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="2" t="s">
@@ -1824,19 +2415,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -1845,7 +2436,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,13 +2452,13 @@
         <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1893,10 +2484,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="K1:K2 D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1919,7 +2510,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1930,32 +2521,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,16 +2563,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,7 +2580,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
@@ -2018,7 +2609,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,16 +2623,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,13 +2645,13 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
@@ -2076,16 +2667,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,16 +2689,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,16 +2709,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,16 +2731,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,13 +2751,13 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>27</v>
@@ -2182,16 +2773,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2231,10 +2822,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="K1:K2 C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2258,7 +2849,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -2269,32 +2860,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,16 +2902,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,13 +2919,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,7 +2948,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,13 +2962,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -2389,16 +2980,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,16 +3002,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,16 +3024,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,16 +3046,16 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,16 +3068,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,16 +3090,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,378 +3147,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K40"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K1:K2 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1450.22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>29</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRHPNRFunderQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="194">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">Vehicle detail</t>
   </si>
   <si>
-    <t xml:space="preserve">JBJ81741</t>
+    <t xml:space="preserve">FLB23306</t>
   </si>
   <si>
     <t xml:space="preserve">xxx</t>
   </si>
   <si>
-    <t xml:space="preserve">KV-6440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CWV6904</t>
+    <t xml:space="preserve">SS-5056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMO2522</t>
   </si>
   <si>
     <t xml:space="preserve">05/12/23</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">14.24</t>
+    <t xml:space="preserve">469.92</t>
   </si>
   <si>
     <t xml:space="preserve">Miles per annum</t>
@@ -368,10 +368,13 @@
     <t xml:space="preserve">1326.97</t>
   </si>
   <si>
-    <t xml:space="preserve">LBU85843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1895.55</t>
+    <t xml:space="preserve">GKY12820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LO-3085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMW2647</t>
   </si>
   <si>
     <t xml:space="preserve">RQI40503</t>
@@ -407,7 +410,7 @@
     <t xml:space="preserve">Final balloon payment </t>
   </si>
   <si>
-    <t xml:space="preserve">GTK56068</t>
+    <t xml:space="preserve">ONU35053</t>
   </si>
   <si>
     <t xml:space="preserve">KE-3823</t>
@@ -452,151 +455,163 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">CPO46301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP-3630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETX5204</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>FBV80527</t>
+    <t xml:space="preserve">RTY59089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-7650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTX5412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9647.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58525.00</t>
+  </si>
+  <si>
+    <t>KZ-7635</t>
+  </si>
+  <si>
+    <t>LTD5479</t>
+  </si>
+  <si>
+    <t>EJR16839</t>
   </si>
   <si>
     <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
   </si>
   <si>
+    <t>Personal Contract Hire</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Popular Fiat</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>5417</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>48237.50</t>
+  </si>
+  <si>
+    <t>9647.50</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>58525.00</t>
+  </si>
+  <si>
+    <t>MI-1855</t>
+  </si>
+  <si>
+    <t>MWN65034</t>
+  </si>
+  <si>
+    <t>QWO60463</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>ICF87457</t>
+  </si>
+  <si>
+    <t>Personal Contract Purchase</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>59965.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>59565.00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>GR-4437</t>
+  </si>
+  <si>
+    <t>EEJ9587</t>
+  </si>
+  <si>
+    <t>CCJ86415</t>
+  </si>
+  <si>
+    <t>EI-1436</t>
+  </si>
+  <si>
+    <t>KPN4332</t>
+  </si>
+  <si>
+    <t>NPP34593</t>
+  </si>
+  <si>
     <t>Hire Purchase Non-Regulated</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1477.49</t>
-  </si>
-  <si>
-    <t>28.61</t>
-  </si>
-  <si>
-    <t>YT-5589</t>
-  </si>
-  <si>
-    <t>DEO90457</t>
-  </si>
-  <si>
-    <t>VH-0843</t>
-  </si>
-  <si>
-    <t>ISU5565</t>
-  </si>
-  <si>
-    <t>STV56784</t>
-  </si>
-  <si>
-    <t>TVU63555</t>
-  </si>
-  <si>
-    <t>ZN-2166</t>
-  </si>
-  <si>
-    <t>EXM61325</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>1597.27</t>
-  </si>
-  <si>
-    <t>05/12/23</t>
-  </si>
-  <si>
-    <t>14.24</t>
-  </si>
-  <si>
-    <t>BA-8474</t>
-  </si>
-  <si>
-    <t>LHJ0008</t>
-  </si>
-  <si>
-    <t>YAL82537</t>
-  </si>
-  <si>
-    <t>KQ-4774</t>
-  </si>
-  <si>
-    <t>ZTK5633</t>
-  </si>
-  <si>
-    <t>WWD69275</t>
-  </si>
-  <si>
-    <t>AAS84759</t>
-  </si>
-  <si>
-    <t>1827.75</t>
-  </si>
-  <si>
-    <t>JE-9326</t>
-  </si>
-  <si>
-    <t>SMS25696</t>
-  </si>
-  <si>
-    <t>MJ-1959</t>
-  </si>
-  <si>
-    <t>YBS8251</t>
-  </si>
-  <si>
-    <t>UFH92681</t>
-  </si>
-  <si>
-    <t>TV-6301</t>
-  </si>
-  <si>
-    <t>FTW56200</t>
-  </si>
-  <si>
-    <t>LO-3085</t>
-  </si>
-  <si>
-    <t>AMW2647</t>
-  </si>
-  <si>
-    <t>GOP39182</t>
-  </si>
-  <si>
-    <t>BP-3349</t>
-  </si>
-  <si>
-    <t>TBS8283</t>
-  </si>
-  <si>
-    <t>GKY12820</t>
-  </si>
-  <si>
-    <t>FLB23306</t>
-  </si>
-  <si>
-    <t>469.92</t>
-  </si>
-  <si>
-    <t>SS-5056</t>
-  </si>
-  <si>
-    <t>QMO2522</t>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>59384.99</t>
+  </si>
+  <si>
+    <t>1139.99</t>
+  </si>
+  <si>
+    <t>EW-6961</t>
+  </si>
+  <si>
+    <t>INY3601</t>
   </si>
 </sst>
 </file>
@@ -853,11 +868,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -888,23 +903,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,13 +950,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -956,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1003,11 +1018,11 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1042,32 +1057,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,13 +1102,13 @@
         <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,13 +1116,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,13 +1139,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,13 +1159,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1165,13 +1180,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,13 +1202,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,16 +1221,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,13 +1243,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -1253,7 +1268,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>97</v>
@@ -1272,16 +1287,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1384,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1404,32 +1419,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,13 +1464,13 @@
         <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,13 +1478,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,13 +1501,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -1507,13 +1522,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1528,13 +1543,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,13 +1565,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,16 +1584,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,13 +1606,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -1616,7 +1631,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>97</v>
@@ -1635,16 +1650,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,7 +1756,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -1914,7 +1929,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -2087,7 +2102,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2237,7 +2252,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2273,32 +2288,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,13 +2333,13 @@
         <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2332,13 +2347,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,13 +2370,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,13 +2415,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,13 +2437,13 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,13 +2459,13 @@
         <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,13 +2481,13 @@
         <v>86</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,13 +2501,13 @@
         <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,13 +2523,13 @@
         <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,13 +2565,13 @@
         <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,7 +2615,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2750,7 +2765,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2919,7 +2934,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2947,20 +2962,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,13 +3006,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -3012,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,13 +3043,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3078,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3097,32 +3112,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,13 +3157,13 @@
         <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,13 +3171,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,13 +3194,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,13 +3217,13 @@
         <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,13 +3239,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,13 +3261,13 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,13 +3283,13 @@
         <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,16 +3300,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,13 +3325,13 @@
         <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,13 +3345,13 @@
         <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,13 +3367,13 @@
         <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="309">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">bbb</t>
   </si>
   <si>
-    <t xml:space="preserve">FU-5825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUK5904</t>
+    <t xml:space="preserve">CB-8538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFL9709</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -166,10 +166,10 @@
     <t xml:space="preserve">1597.27</t>
   </si>
   <si>
-    <t xml:space="preserve">LZT76647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YH-0815</t>
+    <t xml:space="preserve">ZHL06604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JL-2893</t>
   </si>
   <si>
     <t xml:space="preserve">KSJ4589</t>
@@ -253,13 +253,13 @@
     <t xml:space="preserve">OTR summary</t>
   </si>
   <si>
-    <t xml:space="preserve">CCJ86415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI-1436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPN4332</t>
+    <t xml:space="preserve">CGK06623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA-8710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIO1794</t>
   </si>
   <si>
     <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
@@ -319,123 +319,120 @@
     <t xml:space="preserve">Total cash price</t>
   </si>
   <si>
+    <t xml:space="preserve">Cash deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">900.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of monthly payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional final payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to purchase fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL included? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile – total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFB02650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IX-6819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZX7966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1586.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEC92274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQ-4560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KJT1339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4689.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1503.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPY47753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XH-0462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QIA1290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1827.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UIL12389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OE-9496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IUO5928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">59965.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash deposit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance to finance </t>
-  </si>
-  <si>
     <t xml:space="preserve">59565.00</t>
   </si>
   <si>
-    <t xml:space="preserve">No. of monthly payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional final payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option to purchase fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL included? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00 p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile – total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFB02650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IX-6819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZX7966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1586.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEC92274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQ-4560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KJT1339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4689.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1503.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GKY12820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LO-3085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMW2647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1827.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPP34593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EW-6961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INY3601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">900.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finance charges </t>
   </si>
   <si>
@@ -502,19 +499,466 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">QWO60463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA-7650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTX5412</t>
-  </si>
-  <si>
-    <t>CB-8538</t>
-  </si>
-  <si>
-    <t>HFL9709</t>
+    <t xml:space="preserve">QIU12864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP-3405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR8255</t>
+  </si>
+  <si>
+    <t>XQM40246</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Personal Contract Purchase</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Popular Fiat</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>59965.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>59565.00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>48237.50</t>
+  </si>
+  <si>
+    <t>9647.50</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>58525.00</t>
+  </si>
+  <si>
+    <t>SCE94221</t>
+  </si>
+  <si>
+    <t>58665.00</t>
+  </si>
+  <si>
+    <t>DL-2668</t>
+  </si>
+  <si>
+    <t>DLT26379</t>
+  </si>
+  <si>
+    <t>GD-9995</t>
+  </si>
+  <si>
+    <t>SSP50126</t>
+  </si>
+  <si>
+    <t>WT-5457</t>
+  </si>
+  <si>
+    <t>NJG17628</t>
+  </si>
+  <si>
+    <t>SA-7063</t>
+  </si>
+  <si>
+    <t>HM-2617</t>
+  </si>
+  <si>
+    <t>SME27343</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>59384.99</t>
+  </si>
+  <si>
+    <t>1139.99</t>
+  </si>
+  <si>
+    <t>LT-5462</t>
+  </si>
+  <si>
+    <t>PNG3495</t>
+  </si>
+  <si>
+    <t>PIV12990</t>
+  </si>
+  <si>
+    <t>HI-1071</t>
+  </si>
+  <si>
+    <t>HHC0031</t>
+  </si>
+  <si>
+    <t>IF-0902</t>
+  </si>
+  <si>
+    <t>VOD38793</t>
+  </si>
+  <si>
+    <t>UR-4106</t>
+  </si>
+  <si>
+    <t>DNM6223</t>
+  </si>
+  <si>
+    <t>HF-0997</t>
+  </si>
+  <si>
+    <t>KLQ24114</t>
+  </si>
+  <si>
+    <t>UE-9065</t>
+  </si>
+  <si>
+    <t>RV-2896</t>
+  </si>
+  <si>
+    <t>JOC39036</t>
+  </si>
+  <si>
+    <t>RO-3436</t>
+  </si>
+  <si>
+    <t>UZ-1905</t>
+  </si>
+  <si>
+    <t>COP37474</t>
+  </si>
+  <si>
+    <t>UZ-7500</t>
+  </si>
+  <si>
+    <t>VDR90239</t>
+  </si>
+  <si>
+    <t>KH-0564</t>
+  </si>
+  <si>
+    <t>EVE67225</t>
+  </si>
+  <si>
+    <t>PNN23189</t>
+  </si>
+  <si>
+    <t>AD-9483</t>
+  </si>
+  <si>
+    <t>PAS83400</t>
+  </si>
+  <si>
+    <t>YN-3433</t>
+  </si>
+  <si>
+    <t>GGQ02119</t>
+  </si>
+  <si>
+    <t>QO-3122</t>
+  </si>
+  <si>
+    <t>LNO3117</t>
+  </si>
+  <si>
+    <t>HDQ94055</t>
+  </si>
+  <si>
+    <t>GV-6508</t>
+  </si>
+  <si>
+    <t>HNT3385</t>
+  </si>
+  <si>
+    <t>BVK52081</t>
+  </si>
+  <si>
+    <t>BO-3450</t>
+  </si>
+  <si>
+    <t>OPA3269</t>
+  </si>
+  <si>
+    <t>CLC22602</t>
+  </si>
+  <si>
+    <t>QG-0709</t>
+  </si>
+  <si>
+    <t>MYO7677</t>
+  </si>
+  <si>
+    <t>UKL16539</t>
+  </si>
+  <si>
+    <t>JR-4639</t>
+  </si>
+  <si>
+    <t>THL08732</t>
+  </si>
+  <si>
+    <t>ESV46046</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1451.38</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>XT-5743</t>
+  </si>
+  <si>
+    <t>QSK5868</t>
+  </si>
+  <si>
+    <t>RCR84725</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>1503.04</t>
+  </si>
+  <si>
+    <t>4689.17</t>
+  </si>
+  <si>
+    <t>05/12/23</t>
+  </si>
+  <si>
+    <t>28.61</t>
+  </si>
+  <si>
+    <t>OZR74240</t>
+  </si>
+  <si>
+    <t>FN-3566</t>
+  </si>
+  <si>
+    <t>HAT86683</t>
+  </si>
+  <si>
+    <t>DJ-1829</t>
+  </si>
+  <si>
+    <t>RIO1536</t>
+  </si>
+  <si>
+    <t>VAF87109</t>
+  </si>
+  <si>
+    <t>ON-9484</t>
+  </si>
+  <si>
+    <t>QEU9703</t>
+  </si>
+  <si>
+    <t>ZQR40920</t>
+  </si>
+  <si>
+    <t>Personal Contract Hire</t>
+  </si>
+  <si>
+    <t>1735.48</t>
+  </si>
+  <si>
+    <t>QW-6274</t>
+  </si>
+  <si>
+    <t>RRB4846</t>
+  </si>
+  <si>
+    <t>BKR18343</t>
+  </si>
+  <si>
+    <t>1827.75</t>
+  </si>
+  <si>
+    <t>FK-1454</t>
+  </si>
+  <si>
+    <t>QUR8041</t>
+  </si>
+  <si>
+    <t>YWA32039</t>
+  </si>
+  <si>
+    <t>XK-1772</t>
+  </si>
+  <si>
+    <t>AFX9315</t>
+  </si>
+  <si>
+    <t>LLT25872</t>
+  </si>
+  <si>
+    <t>QH-0367</t>
+  </si>
+  <si>
+    <t>XJA1437</t>
+  </si>
+  <si>
+    <t>FIJ19263</t>
+  </si>
+  <si>
+    <t>TBQ80051</t>
+  </si>
+  <si>
+    <t>LP-2583</t>
+  </si>
+  <si>
+    <t>DAW1678</t>
+  </si>
+  <si>
+    <t>XYA77295</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>5417</t>
+  </si>
+  <si>
+    <t>ZL-2717</t>
+  </si>
+  <si>
+    <t>ZDX9659</t>
+  </si>
+  <si>
+    <t>WYX71507</t>
+  </si>
+  <si>
+    <t>QU-5534</t>
+  </si>
+  <si>
+    <t>EVC6383</t>
+  </si>
+  <si>
+    <t>WZI70649</t>
+  </si>
+  <si>
+    <t>DL-2743</t>
+  </si>
+  <si>
+    <t>PVM6382</t>
+  </si>
+  <si>
+    <t>DZI74400</t>
+  </si>
+  <si>
+    <t>1460.77</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>PV-6547</t>
+  </si>
+  <si>
+    <t>DQE4349</t>
+  </si>
+  <si>
+    <t>YCN80291</t>
+  </si>
+  <si>
+    <t>FF-0866</t>
+  </si>
+  <si>
+    <t>ZAD7271</t>
+  </si>
+  <si>
+    <t>AIH19859</t>
+  </si>
+  <si>
+    <t>2123.61</t>
+  </si>
+  <si>
+    <t>CM-2155</t>
+  </si>
+  <si>
+    <t>NLO2447</t>
+  </si>
+  <si>
+    <t>GQK43220</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1597.27</t>
+  </si>
+  <si>
+    <t>469.92</t>
+  </si>
+  <si>
+    <t>ZY-7458</t>
+  </si>
+  <si>
+    <t>YYW7884</t>
   </si>
 </sst>
 </file>
@@ -771,11 +1215,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -812,10 +1256,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -944,7 +1388,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -972,20 +1416,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,13 +1460,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1037,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,13 +1497,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1532,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1122,32 +1566,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,13 +1611,13 @@
         <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>82</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,13 +1625,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,13 +1671,13 @@
         <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,13 +1693,13 @@
         <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,13 +1715,13 @@
         <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,16 +1734,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,16 +1754,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,16 +1776,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,16 +1796,16 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,16 +1818,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1870,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1461,16 +1905,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1526,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,13 +2007,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1609,10 +2053,10 @@
         <v>92</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,13 +2069,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>84</v>
@@ -1647,13 +2091,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -1669,13 +2113,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -1691,16 +2135,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +2232,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1823,32 +2267,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,13 +2312,13 @@
         <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>82</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,13 +2326,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,13 +2349,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -1926,13 +2370,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1947,13 +2391,13 @@
         <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,13 +2413,13 @@
         <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,16 +2432,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,13 +2454,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2032,13 +2476,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2054,16 +2498,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2604,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2310,7 +2754,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2341,23 +2785,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,13 +2832,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2409,7 +2853,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,13 +2869,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2460,7 +2904,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -2633,7 +3077,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -2668,27 +3112,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,13 +3173,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>53</v>
@@ -2753,7 +3197,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,13 +3215,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +3250,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2952,11 +3396,11 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2992,32 +3436,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,13 +3481,13 @@
         <v>80</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>82</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3051,13 +3495,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,13 +3518,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,13 +3563,13 @@
         <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,13 +3585,13 @@
         <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,13 +3607,13 @@
         <v>94</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,16 +3626,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,16 +3646,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,16 +3668,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,13 +3688,13 @@
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -3266,16 +3710,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3763,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3342,23 +3786,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,13 +3839,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3413,13 +3857,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,13 +3877,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -3469,7 +3913,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3500,16 +3944,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3520,7 +3964,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,13 +4005,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3579,13 +4023,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,13 +4047,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="375">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Funder Quote Expiry Date</t>
   </si>
   <si>
-    <t xml:space="preserve">NRF49035</t>
+    <t xml:space="preserve">BEU90533</t>
   </si>
   <si>
     <t xml:space="preserve">QK-2263</t>
@@ -160,19 +160,19 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">469.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1597.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZHL06604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JL-2893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSJ4589</t>
+    <t xml:space="preserve">660.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1599.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JND30244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV-6493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKC5456</t>
   </si>
   <si>
     <t xml:space="preserve">Hire Purchase Non-Regulated</t>
@@ -208,13 +208,13 @@
     <t xml:space="preserve">1750.47</t>
   </si>
   <si>
-    <t xml:space="preserve">XAP81186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX-7158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQU4326</t>
+    <t xml:space="preserve">DZI74400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV-6547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DQE4349</t>
   </si>
   <si>
     <t xml:space="preserve">1460.77</t>
@@ -223,10 +223,10 @@
     <t xml:space="preserve">Funder Specific Expiry Date</t>
   </si>
   <si>
-    <t xml:space="preserve">OJB17220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KV-6762</t>
+    <t xml:space="preserve">UHI06036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJ-1363</t>
   </si>
   <si>
     <t xml:space="preserve">MNB3352</t>
@@ -235,10 +235,157 @@
     <t xml:space="preserve">Required Finance Deposit</t>
   </si>
   <si>
+    <t xml:space="preserve">8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6164.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2209.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTR summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THL08732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR-4639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO7677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9647.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL &amp; FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58525.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly total rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popular Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cash price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59965.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">900.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58665.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of monthly payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional final payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to purchase fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL included? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile – total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBQ80051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP-2583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAW1678</t>
+  </si>
+  <si>
     <t xml:space="preserve">36</t>
   </si>
   <si>
-    <t xml:space="preserve">8000</t>
+    <t xml:space="preserve">500</t>
   </si>
   <si>
     <t xml:space="preserve">1030.00</t>
@@ -247,190 +394,61 @@
     <t xml:space="preserve">10000</t>
   </si>
   <si>
-    <t xml:space="preserve">1807.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTR summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGK06623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OA-8710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIO1794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48237.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9647.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL &amp; FRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58525.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly total rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popular Fiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cash price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash deposit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">900.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance to finance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of monthly payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional final payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option to purchase fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL included? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00 p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile – total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFB02650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IX-6819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZX7966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1586.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZEC92274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UQ-4560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KJT1339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4689.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1503.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPY47753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XH-0462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QIA1290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1827.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIL12389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OE-9496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IUO5928</t>
+    <t xml:space="preserve">1735.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMC21533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG-0534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XUN0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1451.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUK58581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD-9696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZRK9920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1419.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1830.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVZ62604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-3017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBV8986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58585.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogilvie Fleet Limited</t>
   </si>
   <si>
     <t xml:space="preserve">04/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">59965.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59565.00</t>
+    <t xml:space="preserve">60025.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58725.00</t>
   </si>
   <si>
     <t xml:space="preserve">Finance charges </t>
@@ -442,7 +460,7 @@
     <t xml:space="preserve">Balance payable </t>
   </si>
   <si>
-    <t xml:space="preserve">59384.99</t>
+    <t xml:space="preserve">59444.99</t>
   </si>
   <si>
     <t xml:space="preserve">Initial cash payment inc. document fee </t>
@@ -499,379 +517,352 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">QIU12864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP-3405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAR8255</t>
-  </si>
-  <si>
-    <t>XQM40246</t>
+    <t xml:space="preserve">LSA50779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP-3685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGZ0362</t>
+  </si>
+  <si>
+    <t>OG-0652</t>
+  </si>
+  <si>
+    <t>JCC4850</t>
+  </si>
+  <si>
+    <t>1419.17</t>
+  </si>
+  <si>
+    <t>RQQ46836</t>
   </si>
   <si>
     <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
   </si>
   <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1830.20</t>
+  </si>
+  <si>
+    <t>EG-0560</t>
+  </si>
+  <si>
+    <t>QRZ4614</t>
+  </si>
+  <si>
+    <t>WWQ68013</t>
+  </si>
+  <si>
+    <t>AUDI A1 SPORTBACK (2018 - Current) 25 TFSI Black Edition 5dr</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>579.81</t>
+  </si>
+  <si>
+    <t>05/12/23</t>
+  </si>
+  <si>
+    <t>460.02</t>
+  </si>
+  <si>
+    <t>YT-5511</t>
+  </si>
+  <si>
+    <t>MKS2962</t>
+  </si>
+  <si>
+    <t>RRD46988</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>1521.76</t>
+  </si>
+  <si>
+    <t>6164.17</t>
+  </si>
+  <si>
+    <t>VF-9022</t>
+  </si>
+  <si>
+    <t>WWA6347</t>
+  </si>
+  <si>
+    <t>39.42</t>
+  </si>
+  <si>
+    <t>ZWM65141</t>
+  </si>
+  <si>
+    <t>FW-6414</t>
+  </si>
+  <si>
+    <t>GDZ9768</t>
+  </si>
+  <si>
+    <t>OYC76248</t>
+  </si>
+  <si>
+    <t>MF-0414</t>
+  </si>
+  <si>
+    <t>QEN9427</t>
+  </si>
+  <si>
+    <t>PUT50823</t>
+  </si>
+  <si>
+    <t>NO-3080</t>
+  </si>
+  <si>
+    <t>23.08</t>
+  </si>
+  <si>
+    <t>JDW97404</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1457.11</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>CX-7584</t>
+  </si>
+  <si>
+    <t>ZIR04215</t>
+  </si>
+  <si>
+    <t>Personal Contract Hire</t>
+  </si>
+  <si>
+    <t>1737.88</t>
+  </si>
+  <si>
+    <t>FH-0446</t>
+  </si>
+  <si>
+    <t>XZU7230</t>
+  </si>
+  <si>
+    <t>AOU35475</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Ogilvie Fleet Limited</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>60025.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>58725.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>59444.99</t>
+  </si>
+  <si>
+    <t>1139.99</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>48237.50</t>
+  </si>
+  <si>
+    <t>9647.50</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>58585.00</t>
+  </si>
+  <si>
+    <t>SP-3492</t>
+  </si>
+  <si>
+    <t>BVF6501</t>
+  </si>
+  <si>
+    <t>MTZ50048</t>
+  </si>
+  <si>
+    <t>AO-3111</t>
+  </si>
+  <si>
+    <t>KNZ32087</t>
+  </si>
+  <si>
+    <t>HM-2231</t>
+  </si>
+  <si>
+    <t>OWL6168</t>
+  </si>
+  <si>
+    <t>AVG63615</t>
+  </si>
+  <si>
     <t>Personal Contract Purchase</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>Popular Fiat</t>
-  </si>
-  <si>
-    <t>REF001</t>
-  </si>
-  <si>
     <t>04/12/2023</t>
   </si>
   <si>
-    <t>59965.00</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>59565.00</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>2.00 p</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>48237.50</t>
-  </si>
-  <si>
-    <t>9647.50</t>
-  </si>
-  <si>
-    <t>640.00</t>
-  </si>
-  <si>
-    <t>58525.00</t>
-  </si>
-  <si>
-    <t>SCE94221</t>
-  </si>
-  <si>
-    <t>58665.00</t>
-  </si>
-  <si>
-    <t>DL-2668</t>
-  </si>
-  <si>
-    <t>DLT26379</t>
-  </si>
-  <si>
-    <t>GD-9995</t>
-  </si>
-  <si>
-    <t>SSP50126</t>
-  </si>
-  <si>
-    <t>WT-5457</t>
-  </si>
-  <si>
-    <t>NJG17628</t>
-  </si>
-  <si>
-    <t>SA-7063</t>
-  </si>
-  <si>
-    <t>HM-2617</t>
-  </si>
-  <si>
-    <t>SME27343</t>
-  </si>
-  <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>04/12/2024</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>59384.99</t>
-  </si>
-  <si>
-    <t>1139.99</t>
-  </si>
-  <si>
-    <t>LT-5462</t>
-  </si>
-  <si>
-    <t>PNG3495</t>
-  </si>
-  <si>
-    <t>PIV12990</t>
-  </si>
-  <si>
-    <t>HI-1071</t>
-  </si>
-  <si>
-    <t>HHC0031</t>
-  </si>
-  <si>
-    <t>IF-0902</t>
-  </si>
-  <si>
-    <t>VOD38793</t>
-  </si>
-  <si>
-    <t>UR-4106</t>
-  </si>
-  <si>
-    <t>DNM6223</t>
-  </si>
-  <si>
-    <t>HF-0997</t>
-  </si>
-  <si>
-    <t>KLQ24114</t>
-  </si>
-  <si>
-    <t>UE-9065</t>
-  </si>
-  <si>
-    <t>RV-2896</t>
-  </si>
-  <si>
-    <t>JOC39036</t>
-  </si>
-  <si>
-    <t>RO-3436</t>
-  </si>
-  <si>
-    <t>UZ-1905</t>
-  </si>
-  <si>
-    <t>COP37474</t>
-  </si>
-  <si>
-    <t>UZ-7500</t>
-  </si>
-  <si>
-    <t>VDR90239</t>
-  </si>
-  <si>
-    <t>KH-0564</t>
-  </si>
-  <si>
-    <t>EVE67225</t>
-  </si>
-  <si>
-    <t>PNN23189</t>
-  </si>
-  <si>
-    <t>AD-9483</t>
-  </si>
-  <si>
-    <t>PAS83400</t>
-  </si>
-  <si>
-    <t>YN-3433</t>
-  </si>
-  <si>
-    <t>GGQ02119</t>
-  </si>
-  <si>
-    <t>QO-3122</t>
-  </si>
-  <si>
-    <t>LNO3117</t>
-  </si>
-  <si>
-    <t>HDQ94055</t>
-  </si>
-  <si>
-    <t>GV-6508</t>
-  </si>
-  <si>
-    <t>HNT3385</t>
-  </si>
-  <si>
-    <t>BVK52081</t>
-  </si>
-  <si>
-    <t>BO-3450</t>
-  </si>
-  <si>
-    <t>OPA3269</t>
-  </si>
-  <si>
-    <t>CLC22602</t>
-  </si>
-  <si>
-    <t>QG-0709</t>
-  </si>
-  <si>
-    <t>MYO7677</t>
-  </si>
-  <si>
-    <t>UKL16539</t>
-  </si>
-  <si>
-    <t>JR-4639</t>
-  </si>
-  <si>
-    <t>THL08732</t>
-  </si>
-  <si>
-    <t>ESV46046</t>
-  </si>
-  <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1451.38</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>XT-5743</t>
-  </si>
-  <si>
-    <t>QSK5868</t>
-  </si>
-  <si>
-    <t>RCR84725</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>1503.04</t>
-  </si>
-  <si>
-    <t>4689.17</t>
-  </si>
-  <si>
-    <t>05/12/23</t>
-  </si>
-  <si>
-    <t>28.61</t>
-  </si>
-  <si>
-    <t>OZR74240</t>
-  </si>
-  <si>
-    <t>FN-3566</t>
-  </si>
-  <si>
-    <t>HAT86683</t>
-  </si>
-  <si>
-    <t>DJ-1829</t>
-  </si>
-  <si>
-    <t>RIO1536</t>
-  </si>
-  <si>
-    <t>VAF87109</t>
-  </si>
-  <si>
-    <t>ON-9484</t>
-  </si>
-  <si>
-    <t>QEU9703</t>
-  </si>
-  <si>
-    <t>ZQR40920</t>
-  </si>
-  <si>
-    <t>Personal Contract Hire</t>
-  </si>
-  <si>
-    <t>1735.48</t>
-  </si>
-  <si>
-    <t>QW-6274</t>
-  </si>
-  <si>
-    <t>RRB4846</t>
-  </si>
-  <si>
-    <t>BKR18343</t>
-  </si>
-  <si>
-    <t>1827.75</t>
-  </si>
-  <si>
-    <t>FK-1454</t>
-  </si>
-  <si>
-    <t>QUR8041</t>
-  </si>
-  <si>
-    <t>YWA32039</t>
-  </si>
-  <si>
-    <t>XK-1772</t>
-  </si>
-  <si>
-    <t>AFX9315</t>
-  </si>
-  <si>
-    <t>LLT25872</t>
-  </si>
-  <si>
-    <t>QH-0367</t>
-  </si>
-  <si>
-    <t>XJA1437</t>
-  </si>
-  <si>
-    <t>FIJ19263</t>
-  </si>
-  <si>
-    <t>TBQ80051</t>
-  </si>
-  <si>
-    <t>LP-2583</t>
-  </si>
-  <si>
-    <t>DAW1678</t>
-  </si>
-  <si>
-    <t>XYA77295</t>
+    <t>LO-3852</t>
+  </si>
+  <si>
+    <t>VPA03304</t>
+  </si>
+  <si>
+    <t>26745.00</t>
+  </si>
+  <si>
+    <t>25445.00</t>
+  </si>
+  <si>
+    <t>20866.67</t>
+  </si>
+  <si>
+    <t>4173.33</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>25305.00</t>
+  </si>
+  <si>
+    <t>FO-3999</t>
+  </si>
+  <si>
+    <t>RPT3848</t>
+  </si>
+  <si>
+    <t>TKF23218</t>
+  </si>
+  <si>
+    <t>ZY-7869</t>
+  </si>
+  <si>
+    <t>YTA5949</t>
+  </si>
+  <si>
+    <t>OKP23657</t>
+  </si>
+  <si>
+    <t>2209.15</t>
+  </si>
+  <si>
+    <t>IP-3420</t>
+  </si>
+  <si>
+    <t>JRN45432</t>
+  </si>
+  <si>
+    <t>TQ-4941</t>
+  </si>
+  <si>
+    <t>RJY1700</t>
+  </si>
+  <si>
+    <t>YYX48962</t>
+  </si>
+  <si>
+    <t>AO-3950</t>
+  </si>
+  <si>
+    <t>VSM5702</t>
+  </si>
+  <si>
+    <t>ZH-0662</t>
+  </si>
+  <si>
+    <t>MLC24524</t>
+  </si>
+  <si>
+    <t>ATW56568</t>
+  </si>
+  <si>
+    <t>1599.47</t>
+  </si>
+  <si>
+    <t>660.0</t>
+  </si>
+  <si>
+    <t>OF-0857</t>
+  </si>
+  <si>
+    <t>OQW4886</t>
+  </si>
+  <si>
+    <t>NZF74513</t>
+  </si>
+  <si>
+    <t>GM-2325</t>
+  </si>
+  <si>
+    <t>MBN8141</t>
+  </si>
+  <si>
+    <t>WDM91964</t>
   </si>
   <si>
     <t>13</t>
@@ -883,82 +874,289 @@
     <t>5417</t>
   </si>
   <si>
-    <t>ZL-2717</t>
-  </si>
-  <si>
-    <t>ZDX9659</t>
-  </si>
-  <si>
-    <t>WYX71507</t>
-  </si>
-  <si>
-    <t>QU-5534</t>
-  </si>
-  <si>
-    <t>EVC6383</t>
-  </si>
-  <si>
-    <t>WZI70649</t>
-  </si>
-  <si>
-    <t>DL-2743</t>
-  </si>
-  <si>
-    <t>PVM6382</t>
-  </si>
-  <si>
-    <t>DZI74400</t>
-  </si>
-  <si>
-    <t>1460.77</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>PV-6547</t>
-  </si>
-  <si>
-    <t>DQE4349</t>
-  </si>
-  <si>
-    <t>YCN80291</t>
-  </si>
-  <si>
-    <t>FF-0866</t>
-  </si>
-  <si>
-    <t>ZAD7271</t>
-  </si>
-  <si>
-    <t>AIH19859</t>
-  </si>
-  <si>
-    <t>2123.61</t>
-  </si>
-  <si>
-    <t>CM-2155</t>
-  </si>
-  <si>
-    <t>NLO2447</t>
-  </si>
-  <si>
-    <t>GQK43220</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1597.27</t>
-  </si>
-  <si>
-    <t>469.92</t>
-  </si>
-  <si>
-    <t>ZY-7458</t>
-  </si>
-  <si>
-    <t>YYW7884</t>
+    <t>SG-0311</t>
+  </si>
+  <si>
+    <t>RMJ2516</t>
+  </si>
+  <si>
+    <t>WSH45207</t>
+  </si>
+  <si>
+    <t>AEX90409</t>
+  </si>
+  <si>
+    <t>NXS64457</t>
+  </si>
+  <si>
+    <t>IDT92450</t>
+  </si>
+  <si>
+    <t>GY-7019</t>
+  </si>
+  <si>
+    <t>BYK7470</t>
+  </si>
+  <si>
+    <t>HRS46598</t>
+  </si>
+  <si>
+    <t>DV-6579</t>
+  </si>
+  <si>
+    <t>LGV6591</t>
+  </si>
+  <si>
+    <t>ZDQ91485</t>
+  </si>
+  <si>
+    <t>DER95835</t>
+  </si>
+  <si>
+    <t>YI-1975</t>
+  </si>
+  <si>
+    <t>ZGJ0451</t>
+  </si>
+  <si>
+    <t>TRY49564</t>
+  </si>
+  <si>
+    <t>PE-9776</t>
+  </si>
+  <si>
+    <t>WXT6778</t>
+  </si>
+  <si>
+    <t>YJT12061</t>
+  </si>
+  <si>
+    <t>1453.37</t>
+  </si>
+  <si>
+    <t>FV-6077</t>
+  </si>
+  <si>
+    <t>FSV4735</t>
+  </si>
+  <si>
+    <t>TD-9159</t>
+  </si>
+  <si>
+    <t>WDX9744</t>
+  </si>
+  <si>
+    <t>CWC60185</t>
+  </si>
+  <si>
+    <t>KK-1335</t>
+  </si>
+  <si>
+    <t>ATZ5109</t>
+  </si>
+  <si>
+    <t>DMR28096</t>
+  </si>
+  <si>
+    <t>BP-3114</t>
+  </si>
+  <si>
+    <t>CVZ6215</t>
+  </si>
+  <si>
+    <t>WBY82164</t>
+  </si>
+  <si>
+    <t>YY-7193</t>
+  </si>
+  <si>
+    <t>JIM1071</t>
+  </si>
+  <si>
+    <t>RJP13056</t>
+  </si>
+  <si>
+    <t>WGN05926</t>
+  </si>
+  <si>
+    <t>JB-8871</t>
+  </si>
+  <si>
+    <t>OVV6209</t>
+  </si>
+  <si>
+    <t>TEO28264</t>
+  </si>
+  <si>
+    <t>2135.65</t>
+  </si>
+  <si>
+    <t>JY-7080</t>
+  </si>
+  <si>
+    <t>IUB5095</t>
+  </si>
+  <si>
+    <t>XII19216</t>
+  </si>
+  <si>
+    <t>LE-9129</t>
+  </si>
+  <si>
+    <t>WKH2450</t>
+  </si>
+  <si>
+    <t>AMK28205</t>
+  </si>
+  <si>
+    <t>LQ-4994</t>
+  </si>
+  <si>
+    <t>CVR6034</t>
+  </si>
+  <si>
+    <t>LMT23785</t>
+  </si>
+  <si>
+    <t>EX-6947</t>
+  </si>
+  <si>
+    <t>IZS7322</t>
+  </si>
+  <si>
+    <t>CVM68508</t>
+  </si>
+  <si>
+    <t>WA-8002</t>
+  </si>
+  <si>
+    <t>DOK9969</t>
+  </si>
+  <si>
+    <t>UM-2121</t>
+  </si>
+  <si>
+    <t>ATI1208</t>
+  </si>
+  <si>
+    <t>VRV42789</t>
+  </si>
+  <si>
+    <t>ZBP82460</t>
+  </si>
+  <si>
+    <t>XJ-1595</t>
+  </si>
+  <si>
+    <t>SKM1029</t>
+  </si>
+  <si>
+    <t>ORE46020</t>
+  </si>
+  <si>
+    <t>EL-2326</t>
+  </si>
+  <si>
+    <t>GIT1377</t>
+  </si>
+  <si>
+    <t>GNC22176</t>
+  </si>
+  <si>
+    <t>QU-5462</t>
+  </si>
+  <si>
+    <t>HBC8060</t>
+  </si>
+  <si>
+    <t>WKQ28827</t>
+  </si>
+  <si>
+    <t>IH-0007</t>
+  </si>
+  <si>
+    <t>KMQ2431</t>
+  </si>
+  <si>
+    <t>RZZ74369</t>
+  </si>
+  <si>
+    <t>HU-5364</t>
+  </si>
+  <si>
+    <t>WRS4801</t>
+  </si>
+  <si>
+    <t>BHP04169</t>
+  </si>
+  <si>
+    <t>WD-9967</t>
+  </si>
+  <si>
+    <t>FKE1167</t>
+  </si>
+  <si>
+    <t>VCJ84570</t>
+  </si>
+  <si>
+    <t>YZ-7628</t>
+  </si>
+  <si>
+    <t>ZYH7545</t>
+  </si>
+  <si>
+    <t>QYI76105</t>
+  </si>
+  <si>
+    <t>PMX27972</t>
+  </si>
+  <si>
+    <t>DH-0557</t>
+  </si>
+  <si>
+    <t>YTN5592</t>
+  </si>
+  <si>
+    <t>FJ-1274</t>
+  </si>
+  <si>
+    <t>QZU7265</t>
+  </si>
+  <si>
+    <t>TBK81225</t>
+  </si>
+  <si>
+    <t>PW-6347</t>
+  </si>
+  <si>
+    <t>VSP3819</t>
+  </si>
+  <si>
+    <t>IRI40551</t>
+  </si>
+  <si>
+    <t>MT-5554</t>
+  </si>
+  <si>
+    <t>OIQ1684</t>
+  </si>
+  <si>
+    <t>VYD71528</t>
+  </si>
+  <si>
+    <t>XQ-4012</t>
+  </si>
+  <si>
+    <t>HZF7677</t>
+  </si>
+  <si>
+    <t>VJP11530</t>
+  </si>
+  <si>
+    <t>BR-4170</t>
+  </si>
+  <si>
+    <t>BXQ6572</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1417,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -1384,11 +1582,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1416,20 +1614,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,13 +1658,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1481,7 +1679,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,13 +1695,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1730,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1555,7 +1753,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1566,32 +1764,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,16 +1806,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,13 +1823,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,13 +1846,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,16 +1866,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,16 +1888,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,16 +1910,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,16 +1932,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,16 +1952,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,13 +1977,13 @@
         <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,13 +1997,13 @@
         <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,13 +2019,13 @@
         <v>109</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +2068,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1894,7 +2092,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1905,32 +2103,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,16 +2145,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,13 +2162,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,13 +2185,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,13 +2205,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2025,16 +2223,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,16 +2245,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,16 +2267,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,13 +2289,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2116,7 +2314,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>107</v>
@@ -2135,16 +2333,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,10 +2427,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2256,7 +2454,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -2266,33 +2464,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>279</v>
+      <c r="A2" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,16 +2507,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,13 +2524,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2349,13 +2547,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2370,13 +2568,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2388,16 +2586,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,16 +2608,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,16 +2630,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,13 +2652,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2479,7 +2677,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>107</v>
@@ -2498,16 +2696,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,7 +2802,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2635,23 +2833,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>340</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>341</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,13 +2880,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2703,7 +2901,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,13 +2917,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2952,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2785,23 +2983,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,13 +3030,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2853,7 +3051,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,13 +3067,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2904,7 +3102,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -3077,7 +3275,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -3112,27 +3310,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,13 +3371,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>53</v>
@@ -3197,7 +3395,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3250,7 +3448,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3281,23 +3479,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>63</v>
+        <v>336</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>337</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,19 +3526,19 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>39</v>
@@ -3349,7 +3547,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,13 +3563,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3396,11 +3594,11 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3423,7 +3621,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -3436,32 +3634,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,16 +3676,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3495,13 +3693,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,13 +3716,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,13 +3736,13 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -3560,16 +3758,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,16 +3780,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,16 +3802,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3626,16 +3824,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,13 +3847,13 @@
         <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,13 +3869,13 @@
         <v>104</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,13 +3911,13 @@
         <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,7 +3961,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3786,23 +3984,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,13 +4037,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3857,13 +4055,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,13 +4075,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -3913,7 +4111,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3944,16 +4142,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3964,7 +4162,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,13 +4203,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -4023,13 +4221,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,13 +4245,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="167">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -130,13 +130,13 @@
     <t xml:space="preserve">Funder Quote Expiry Date</t>
   </si>
   <si>
-    <t xml:space="preserve">BEU90533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QK-2263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUN5425</t>
+    <t xml:space="preserve">YAU83473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL-2577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HXI6246</t>
   </si>
   <si>
     <t xml:space="preserve">05/12/23</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">1599.47</t>
   </si>
   <si>
-    <t xml:space="preserve">JND30244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV-6493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKC5456</t>
+    <t xml:space="preserve">XII19216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE-9129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKH2450</t>
   </si>
   <si>
     <t xml:space="preserve">Hire Purchase Non-Regulated</t>
@@ -208,28 +208,31 @@
     <t xml:space="preserve">1750.47</t>
   </si>
   <si>
-    <t xml:space="preserve">DZI74400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV-6547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DQE4349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1460.77</t>
+    <t xml:space="preserve">VJP11530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR-4170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BXQ6572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1457.11</t>
   </si>
   <si>
     <t xml:space="preserve">Funder Specific Expiry Date</t>
   </si>
   <si>
-    <t xml:space="preserve">UHI06036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJ-1363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNB3352</t>
+    <t xml:space="preserve">VBO81904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC-8751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCA9950</t>
   </si>
   <si>
     <t xml:space="preserve">Required Finance Deposit</t>
@@ -247,13 +250,13 @@
     <t xml:space="preserve">OTR summary</t>
   </si>
   <si>
-    <t xml:space="preserve">THL08732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JR-4639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYO7677</t>
+    <t xml:space="preserve">TKF23218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZY-7869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTA5949</t>
   </si>
   <si>
     <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
@@ -271,186 +274,186 @@
     <t xml:space="preserve">RFL &amp; FRF</t>
   </si>
   <si>
+    <t xml:space="preserve">700.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58585.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly total rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogilvie Fleet Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cash price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60025.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">900.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58725.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of monthly payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional final payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to purchase fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL included? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile – total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIV14770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OO-3512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBL8766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4689.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1641.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUX51596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HI-7010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HVZ6927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1030.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1451.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEO28264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JY-7080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IUB5095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2135.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGA00370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ-7243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP3819</t>
+  </si>
+  <si>
     <t xml:space="preserve">640.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
     <t xml:space="preserve">58525.00</t>
   </si>
   <si>
-    <t xml:space="preserve">2000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly total rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder</t>
-  </si>
-  <si>
     <t xml:space="preserve">Popular Fiat</t>
   </si>
   <si>
-    <t xml:space="preserve">Quote reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cash price</t>
+    <t xml:space="preserve">04/12/2024</t>
   </si>
   <si>
     <t xml:space="preserve">59965.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Cash deposit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">900.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance to finance </t>
-  </si>
-  <si>
     <t xml:space="preserve">58665.00</t>
   </si>
   <si>
-    <t xml:space="preserve">No. of monthly payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional final payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option to purchase fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL included? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00 p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile – total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBQ80051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP-2583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAW1678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1030.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1735.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMC21533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG-0534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XUN0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1451.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUK58581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD-9696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZRK9920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1419.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1830.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVZ62604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO-3017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBV8986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58585.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogilvie Fleet Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60025.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58725.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finance charges </t>
   </si>
   <si>
@@ -460,7 +463,7 @@
     <t xml:space="preserve">Balance payable </t>
   </si>
   <si>
-    <t xml:space="preserve">59444.99</t>
+    <t xml:space="preserve">59384.99</t>
   </si>
   <si>
     <t xml:space="preserve">Initial cash payment inc. document fee </t>
@@ -472,13 +475,16 @@
     <t xml:space="preserve">Final balloon payment </t>
   </si>
   <si>
-    <t xml:space="preserve">MWN65034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI-1855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTD5479</t>
+    <t xml:space="preserve">DDG87226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-5742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POQ3082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract  </t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
@@ -517,646 +523,16 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">LSA50779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MP-3685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGZ0362</t>
-  </si>
-  <si>
-    <t>OG-0652</t>
-  </si>
-  <si>
-    <t>JCC4850</t>
-  </si>
-  <si>
-    <t>1419.17</t>
-  </si>
-  <si>
-    <t>RQQ46836</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
-  </si>
-  <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1830.20</t>
-  </si>
-  <si>
-    <t>EG-0560</t>
-  </si>
-  <si>
-    <t>QRZ4614</t>
-  </si>
-  <si>
-    <t>WWQ68013</t>
-  </si>
-  <si>
-    <t>AUDI A1 SPORTBACK (2018 - Current) 25 TFSI Black Edition 5dr</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>579.81</t>
-  </si>
-  <si>
-    <t>05/12/23</t>
-  </si>
-  <si>
-    <t>460.02</t>
-  </si>
-  <si>
-    <t>YT-5511</t>
-  </si>
-  <si>
-    <t>MKS2962</t>
-  </si>
-  <si>
-    <t>RRD46988</t>
-  </si>
-  <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>1521.76</t>
-  </si>
-  <si>
-    <t>6164.17</t>
-  </si>
-  <si>
-    <t>VF-9022</t>
-  </si>
-  <si>
-    <t>WWA6347</t>
-  </si>
-  <si>
-    <t>39.42</t>
-  </si>
-  <si>
-    <t>ZWM65141</t>
-  </si>
-  <si>
-    <t>FW-6414</t>
-  </si>
-  <si>
-    <t>GDZ9768</t>
-  </si>
-  <si>
-    <t>OYC76248</t>
-  </si>
-  <si>
-    <t>MF-0414</t>
-  </si>
-  <si>
-    <t>QEN9427</t>
-  </si>
-  <si>
-    <t>PUT50823</t>
-  </si>
-  <si>
-    <t>NO-3080</t>
-  </si>
-  <si>
-    <t>23.08</t>
-  </si>
-  <si>
-    <t>JDW97404</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1457.11</t>
-  </si>
-  <si>
-    <t>8.19</t>
-  </si>
-  <si>
-    <t>CX-7584</t>
-  </si>
-  <si>
-    <t>ZIR04215</t>
-  </si>
-  <si>
-    <t>Personal Contract Hire</t>
-  </si>
-  <si>
-    <t>1737.88</t>
-  </si>
-  <si>
-    <t>FH-0446</t>
-  </si>
-  <si>
-    <t>XZU7230</t>
-  </si>
-  <si>
-    <t>AOU35475</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>Ogilvie Fleet Limited</t>
-  </si>
-  <si>
-    <t>REF001</t>
-  </si>
-  <si>
-    <t>04/12/2024</t>
-  </si>
-  <si>
-    <t>60025.00</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>58725.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>59444.99</t>
-  </si>
-  <si>
-    <t>1139.99</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>48237.50</t>
-  </si>
-  <si>
-    <t>9647.50</t>
-  </si>
-  <si>
-    <t>700.00</t>
-  </si>
-  <si>
-    <t>58585.00</t>
-  </si>
-  <si>
-    <t>SP-3492</t>
-  </si>
-  <si>
-    <t>BVF6501</t>
-  </si>
-  <si>
-    <t>MTZ50048</t>
-  </si>
-  <si>
-    <t>AO-3111</t>
-  </si>
-  <si>
-    <t>KNZ32087</t>
-  </si>
-  <si>
-    <t>HM-2231</t>
-  </si>
-  <si>
-    <t>OWL6168</t>
-  </si>
-  <si>
-    <t>AVG63615</t>
-  </si>
-  <si>
-    <t>Personal Contract Purchase</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>2.00 p</t>
-  </si>
-  <si>
-    <t>LO-3852</t>
-  </si>
-  <si>
-    <t>VPA03304</t>
-  </si>
-  <si>
-    <t>26745.00</t>
-  </si>
-  <si>
-    <t>25445.00</t>
-  </si>
-  <si>
-    <t>20866.67</t>
-  </si>
-  <si>
-    <t>4173.33</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>25305.00</t>
-  </si>
-  <si>
-    <t>FO-3999</t>
-  </si>
-  <si>
-    <t>RPT3848</t>
-  </si>
-  <si>
-    <t>TKF23218</t>
-  </si>
-  <si>
-    <t>ZY-7869</t>
-  </si>
-  <si>
-    <t>YTA5949</t>
-  </si>
-  <si>
-    <t>OKP23657</t>
-  </si>
-  <si>
-    <t>2209.15</t>
-  </si>
-  <si>
-    <t>IP-3420</t>
-  </si>
-  <si>
-    <t>JRN45432</t>
-  </si>
-  <si>
-    <t>TQ-4941</t>
-  </si>
-  <si>
-    <t>RJY1700</t>
-  </si>
-  <si>
-    <t>YYX48962</t>
-  </si>
-  <si>
-    <t>AO-3950</t>
-  </si>
-  <si>
-    <t>VSM5702</t>
-  </si>
-  <si>
-    <t>ZH-0662</t>
-  </si>
-  <si>
-    <t>MLC24524</t>
-  </si>
-  <si>
-    <t>ATW56568</t>
-  </si>
-  <si>
-    <t>1599.47</t>
-  </si>
-  <si>
-    <t>660.0</t>
-  </si>
-  <si>
-    <t>OF-0857</t>
-  </si>
-  <si>
-    <t>OQW4886</t>
-  </si>
-  <si>
-    <t>NZF74513</t>
-  </si>
-  <si>
-    <t>GM-2325</t>
-  </si>
-  <si>
-    <t>MBN8141</t>
-  </si>
-  <si>
-    <t>WDM91964</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Monthly in advance</t>
-  </si>
-  <si>
-    <t>5417</t>
-  </si>
-  <si>
-    <t>SG-0311</t>
-  </si>
-  <si>
-    <t>RMJ2516</t>
-  </si>
-  <si>
-    <t>WSH45207</t>
-  </si>
-  <si>
-    <t>AEX90409</t>
-  </si>
-  <si>
-    <t>NXS64457</t>
-  </si>
-  <si>
-    <t>IDT92450</t>
-  </si>
-  <si>
-    <t>GY-7019</t>
-  </si>
-  <si>
-    <t>BYK7470</t>
-  </si>
-  <si>
-    <t>HRS46598</t>
-  </si>
-  <si>
-    <t>DV-6579</t>
-  </si>
-  <si>
-    <t>LGV6591</t>
-  </si>
-  <si>
-    <t>ZDQ91485</t>
-  </si>
-  <si>
-    <t>DER95835</t>
-  </si>
-  <si>
-    <t>YI-1975</t>
-  </si>
-  <si>
-    <t>ZGJ0451</t>
-  </si>
-  <si>
-    <t>TRY49564</t>
-  </si>
-  <si>
-    <t>PE-9776</t>
-  </si>
-  <si>
-    <t>WXT6778</t>
-  </si>
-  <si>
-    <t>YJT12061</t>
-  </si>
-  <si>
-    <t>1453.37</t>
-  </si>
-  <si>
-    <t>FV-6077</t>
-  </si>
-  <si>
-    <t>FSV4735</t>
-  </si>
-  <si>
-    <t>TD-9159</t>
-  </si>
-  <si>
-    <t>WDX9744</t>
-  </si>
-  <si>
-    <t>CWC60185</t>
-  </si>
-  <si>
-    <t>KK-1335</t>
-  </si>
-  <si>
-    <t>ATZ5109</t>
-  </si>
-  <si>
-    <t>DMR28096</t>
-  </si>
-  <si>
-    <t>BP-3114</t>
-  </si>
-  <si>
-    <t>CVZ6215</t>
-  </si>
-  <si>
-    <t>WBY82164</t>
-  </si>
-  <si>
-    <t>YY-7193</t>
-  </si>
-  <si>
-    <t>JIM1071</t>
-  </si>
-  <si>
-    <t>RJP13056</t>
-  </si>
-  <si>
-    <t>WGN05926</t>
-  </si>
-  <si>
-    <t>JB-8871</t>
-  </si>
-  <si>
-    <t>OVV6209</t>
-  </si>
-  <si>
-    <t>TEO28264</t>
-  </si>
-  <si>
-    <t>2135.65</t>
-  </si>
-  <si>
-    <t>JY-7080</t>
-  </si>
-  <si>
-    <t>IUB5095</t>
-  </si>
-  <si>
-    <t>XII19216</t>
-  </si>
-  <si>
-    <t>LE-9129</t>
-  </si>
-  <si>
-    <t>WKH2450</t>
-  </si>
-  <si>
-    <t>AMK28205</t>
-  </si>
-  <si>
-    <t>LQ-4994</t>
-  </si>
-  <si>
-    <t>CVR6034</t>
-  </si>
-  <si>
-    <t>LMT23785</t>
-  </si>
-  <si>
-    <t>EX-6947</t>
-  </si>
-  <si>
-    <t>IZS7322</t>
-  </si>
-  <si>
-    <t>CVM68508</t>
-  </si>
-  <si>
-    <t>WA-8002</t>
-  </si>
-  <si>
-    <t>DOK9969</t>
-  </si>
-  <si>
-    <t>UM-2121</t>
-  </si>
-  <si>
-    <t>ATI1208</t>
-  </si>
-  <si>
-    <t>VRV42789</t>
-  </si>
-  <si>
-    <t>ZBP82460</t>
-  </si>
-  <si>
-    <t>XJ-1595</t>
-  </si>
-  <si>
-    <t>SKM1029</t>
-  </si>
-  <si>
-    <t>ORE46020</t>
-  </si>
-  <si>
-    <t>EL-2326</t>
-  </si>
-  <si>
-    <t>GIT1377</t>
-  </si>
-  <si>
-    <t>GNC22176</t>
-  </si>
-  <si>
-    <t>QU-5462</t>
-  </si>
-  <si>
-    <t>HBC8060</t>
-  </si>
-  <si>
-    <t>WKQ28827</t>
-  </si>
-  <si>
-    <t>IH-0007</t>
-  </si>
-  <si>
-    <t>KMQ2431</t>
-  </si>
-  <si>
-    <t>RZZ74369</t>
-  </si>
-  <si>
-    <t>HU-5364</t>
-  </si>
-  <si>
-    <t>WRS4801</t>
-  </si>
-  <si>
-    <t>BHP04169</t>
-  </si>
-  <si>
-    <t>WD-9967</t>
-  </si>
-  <si>
-    <t>FKE1167</t>
-  </si>
-  <si>
-    <t>VCJ84570</t>
-  </si>
-  <si>
-    <t>YZ-7628</t>
-  </si>
-  <si>
-    <t>ZYH7545</t>
-  </si>
-  <si>
-    <t>QYI76105</t>
-  </si>
-  <si>
-    <t>PMX27972</t>
-  </si>
-  <si>
-    <t>DH-0557</t>
-  </si>
-  <si>
-    <t>YTN5592</t>
-  </si>
-  <si>
-    <t>FJ-1274</t>
-  </si>
-  <si>
-    <t>QZU7265</t>
-  </si>
-  <si>
-    <t>TBK81225</t>
-  </si>
-  <si>
-    <t>PW-6347</t>
-  </si>
-  <si>
-    <t>VSP3819</t>
-  </si>
-  <si>
-    <t>IRI40551</t>
-  </si>
-  <si>
-    <t>MT-5554</t>
-  </si>
-  <si>
-    <t>OIQ1684</t>
-  </si>
-  <si>
-    <t>VYD71528</t>
-  </si>
-  <si>
-    <t>XQ-4012</t>
-  </si>
-  <si>
-    <t>HZF7677</t>
-  </si>
-  <si>
-    <t>VJP11530</t>
-  </si>
-  <si>
-    <t>BR-4170</t>
-  </si>
-  <si>
-    <t>BXQ6572</t>
+    <t xml:space="preserve">BHP04169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD-9967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKE1167</t>
+  </si>
+  <si>
+    <t>FT-5525</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1328,6 +704,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1417,7 +797,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -1582,11 +962,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1614,20 +994,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>319</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,13 +1038,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1679,7 +1059,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,13 +1075,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1110,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1752,44 +1132,44 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,16 +1186,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,13 +1203,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,16 +1246,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,16 +1268,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,16 +1290,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,16 +1312,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,16 +1332,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,16 +1354,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,16 +1374,16 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,16 +1396,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,11 +1444,11 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2085,50 +1465,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,30 +1525,30 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,13 +1565,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,13 +1585,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2223,16 +1603,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,16 +1625,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,16 +1647,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,13 +1669,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2311,13 +1691,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2333,16 +1713,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,7 +1810,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2453,44 +1833,44 @@
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>351</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>164</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,16 +1887,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,13 +1904,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,13 +1927,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2568,13 +1948,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2586,16 +1966,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,16 +1988,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,16 +2010,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,13 +2032,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2674,13 +2054,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2696,16 +2076,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,7 +2182,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2833,23 +2213,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>339</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,13 +2260,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2901,7 +2281,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,13 +2297,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>269</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +2332,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2983,23 +2363,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,13 +2410,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3051,7 +2431,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,13 +2447,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>269</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3102,7 +2482,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -3275,7 +2655,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -3310,27 +2690,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>372</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>373</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>374</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,13 +2751,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>53</v>
@@ -3395,7 +2775,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,13 +2793,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +2828,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3471,7 +2851,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -3479,23 +2859,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>337</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>13</v>
@@ -3526,19 +2906,19 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>39</v>
@@ -3547,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,13 +2943,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +2978,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3621,7 +3001,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -3634,32 +3014,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,16 +3056,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3693,13 +3073,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,13 +3096,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,13 +3116,13 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -3758,16 +3138,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,16 +3160,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,16 +3182,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,16 +3204,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3844,16 +3224,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,16 +3246,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,13 +3266,13 @@
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -3908,16 +3288,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,10 +3338,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3983,24 +3363,24 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>314</v>
+      <c r="A2" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>316</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,13 +3417,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -4061,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,18 +3450,18 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -4108,10 +3488,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -4142,16 +3522,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>371</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -4162,7 +3542,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,13 +3583,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -4227,7 +3607,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,13 +3625,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="295">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -533,6 +533,390 @@
   </si>
   <si>
     <t>FT-5525</t>
+  </si>
+  <si>
+    <t>RNG31402</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Popular Fiat</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>5417</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>48237.50</t>
+  </si>
+  <si>
+    <t>9647.50</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>58535.00</t>
+  </si>
+  <si>
+    <t>SA-8136</t>
+  </si>
+  <si>
+    <t>OFF96570</t>
+  </si>
+  <si>
+    <t>UA-8686</t>
+  </si>
+  <si>
+    <t>DTM54647</t>
+  </si>
+  <si>
+    <t>QJ-1499</t>
+  </si>
+  <si>
+    <t>ADS9685</t>
+  </si>
+  <si>
+    <t>RNS38906</t>
+  </si>
+  <si>
+    <t>KB-8121</t>
+  </si>
+  <si>
+    <t>CSC5751</t>
+  </si>
+  <si>
+    <t>FGN05201</t>
+  </si>
+  <si>
+    <t>SH-0230</t>
+  </si>
+  <si>
+    <t>NOT3771</t>
+  </si>
+  <si>
+    <t>IEU99550</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>59975.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>58675.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>59394.99</t>
+  </si>
+  <si>
+    <t>1139.99</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>RE-9997</t>
+  </si>
+  <si>
+    <t>PPB3890</t>
+  </si>
+  <si>
+    <t>UID18368</t>
+  </si>
+  <si>
+    <t>Personal Contract Hire</t>
+  </si>
+  <si>
+    <t>UT-5802</t>
+  </si>
+  <si>
+    <t>UNB3836</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>MRU41161</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1597.64</t>
+  </si>
+  <si>
+    <t>05/12/23</t>
+  </si>
+  <si>
+    <t>469.92</t>
+  </si>
+  <si>
+    <t>ZA-8373</t>
+  </si>
+  <si>
+    <t>BDB9238</t>
+  </si>
+  <si>
+    <t>HEZ93804</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1735.85</t>
+  </si>
+  <si>
+    <t>VJ-1854</t>
+  </si>
+  <si>
+    <t>EOH3968</t>
+  </si>
+  <si>
+    <t>ENC32307</t>
+  </si>
+  <si>
+    <t>895.83</t>
+  </si>
+  <si>
+    <t>CTQ51501</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2124.03</t>
+  </si>
+  <si>
+    <t>4689.17</t>
+  </si>
+  <si>
+    <t>MN-3890</t>
+  </si>
+  <si>
+    <t>QJO1880</t>
+  </si>
+  <si>
+    <t>TN-0578</t>
+  </si>
+  <si>
+    <t>VWC6559</t>
+  </si>
+  <si>
+    <t>GGH09117</t>
+  </si>
+  <si>
+    <t>LR-4369</t>
+  </si>
+  <si>
+    <t>NCF8429</t>
+  </si>
+  <si>
+    <t>WNM31071</t>
+  </si>
+  <si>
+    <t>WX-7839</t>
+  </si>
+  <si>
+    <t>XWN0538</t>
+  </si>
+  <si>
+    <t>WWK63105</t>
+  </si>
+  <si>
+    <t>FQ-4517</t>
+  </si>
+  <si>
+    <t>SEM9167</t>
+  </si>
+  <si>
+    <t>DSW44872</t>
+  </si>
+  <si>
+    <t>1451.69</t>
+  </si>
+  <si>
+    <t>QX-6914</t>
+  </si>
+  <si>
+    <t>LRT0099</t>
+  </si>
+  <si>
+    <t>28.61</t>
+  </si>
+  <si>
+    <t>KLW27862</t>
+  </si>
+  <si>
+    <t>1460.77</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>PM-2961</t>
+  </si>
+  <si>
+    <t>PCR8220</t>
+  </si>
+  <si>
+    <t>QDW94671</t>
+  </si>
+  <si>
+    <t>AR-4110</t>
+  </si>
+  <si>
+    <t>QVA69679</t>
+  </si>
+  <si>
+    <t>FR-4265</t>
+  </si>
+  <si>
+    <t>GYF2107</t>
+  </si>
+  <si>
+    <t>IOM31769</t>
+  </si>
+  <si>
+    <t>UUK58004</t>
+  </si>
+  <si>
+    <t>RI-1515</t>
+  </si>
+  <si>
+    <t>NHZ0177</t>
+  </si>
+  <si>
+    <t>OEF93586</t>
+  </si>
+  <si>
+    <t>YP-3291</t>
+  </si>
+  <si>
+    <t>PNC20620</t>
+  </si>
+  <si>
+    <t>SUL50664</t>
+  </si>
+  <si>
+    <t>DI-1297</t>
+  </si>
+  <si>
+    <t>ALD21282</t>
+  </si>
+  <si>
+    <t>POE38764</t>
+  </si>
+  <si>
+    <t>TP-3774</t>
+  </si>
+  <si>
+    <t>DQH41028</t>
+  </si>
+  <si>
+    <t>MG-0526</t>
+  </si>
+  <si>
+    <t>VCL8351</t>
+  </si>
+  <si>
+    <t>UZP73566</t>
+  </si>
+  <si>
+    <t>PV-6864</t>
+  </si>
+  <si>
+    <t>OQU4517</t>
+  </si>
+  <si>
+    <t>1428.33</t>
+  </si>
+  <si>
+    <t>GHH01230</t>
+  </si>
+  <si>
+    <t>1453.37</t>
+  </si>
+  <si>
+    <t>DK-2752</t>
+  </si>
+  <si>
+    <t>FDD9612</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>URL44922</t>
+  </si>
+  <si>
+    <t>1737.88</t>
+  </si>
+  <si>
+    <t>PZ-7848</t>
+  </si>
+  <si>
+    <t>MQ-2581</t>
+  </si>
+  <si>
+    <t>JZH7667</t>
   </si>
 </sst>
 </file>
@@ -994,20 +1378,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,13 +1422,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1059,7 +1443,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,13 +1459,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1144,32 +1528,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,13 +1573,13 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,13 +1587,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,13 +1610,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,13 +1633,13 @@
         <v>86</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,13 +1655,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,13 +1677,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,13 +1699,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,13 +1719,13 @@
         <v>142</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,13 +1741,13 @@
         <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,13 +1761,13 @@
         <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,13 +1783,13 @@
         <v>110</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,32 +1867,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,13 +1912,13 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,13 +1926,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,13 +1949,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,13 +1990,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,13 +2012,13 @@
         <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,13 +2034,13 @@
         <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +2078,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>108</v>
@@ -1722,7 +2106,7 @@
         <v>162</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1845,32 +2229,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,13 +2274,13 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,13 +2288,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,13 +2311,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -1969,13 +2353,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,13 +2375,13 @@
         <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,13 +2397,13 @@
         <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +2441,7 @@
         <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>108</v>
@@ -2085,7 +2469,7 @@
         <v>162</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,23 +2747,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,13 +2794,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2431,7 +2815,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,13 +2831,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2690,27 +3074,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,13 +3135,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>53</v>
@@ -2775,7 +3159,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,13 +3177,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3364,23 +3748,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,13 +3801,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3441,7 +3825,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,13 +3839,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -3522,16 +3906,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>288</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3542,7 +3926,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,13 +3967,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3607,7 +3991,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>124</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,13 +4009,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="BrokerHPNRQuoteNo" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="BrokerPCHQuoteNo" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="BrokerBCHQuoteNo" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="OP-OP" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="271">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -130,13 +131,13 @@
     <t xml:space="preserve">Funder Quote Expiry Date</t>
   </si>
   <si>
-    <t xml:space="preserve">YAU83473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL-2577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HXI6246</t>
+    <t xml:space="preserve">BKP14302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YC-8638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCG8827</t>
   </si>
   <si>
     <t xml:space="preserve">05/12/23</t>
@@ -160,24 +161,33 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">660.0</t>
+    <t xml:space="preserve">658.35</t>
   </si>
   <si>
     <t xml:space="preserve">1599.47</t>
   </si>
   <si>
-    <t xml:space="preserve">XII19216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE-9129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKH2450</t>
+    <t xml:space="preserve">DMB20675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XV-6275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUK5044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A1 SPORTBACK (2018 - Current) 25 TFSI S Line 5dr</t>
   </si>
   <si>
     <t xml:space="preserve">Hire Purchase Non-Regulated</t>
   </si>
   <si>
+    <t xml:space="preserve">370.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.55</t>
+  </si>
+  <si>
     <t xml:space="preserve">QWF65853</t>
   </si>
   <si>
@@ -208,16 +218,16 @@
     <t xml:space="preserve">1750.47</t>
   </si>
   <si>
-    <t xml:space="preserve">VJP11530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR-4170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BXQ6572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.61</t>
+    <t xml:space="preserve">DZR73353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV-6446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR4243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19</t>
   </si>
   <si>
     <t xml:space="preserve">1457.11</t>
@@ -226,13 +236,13 @@
     <t xml:space="preserve">Funder Specific Expiry Date</t>
   </si>
   <si>
-    <t xml:space="preserve">VBO81904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC-8751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCA9950</t>
+    <t xml:space="preserve">MID18002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJ-1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM4458</t>
   </si>
   <si>
     <t xml:space="preserve">Required Finance Deposit</t>
@@ -241,10 +251,10 @@
     <t xml:space="preserve">8000</t>
   </si>
   <si>
-    <t xml:space="preserve">6164.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2209.15</t>
+    <t xml:space="preserve">1030.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2201.31</t>
   </si>
   <si>
     <t xml:space="preserve">OTR summary</t>
@@ -376,70 +386,76 @@
     <t xml:space="preserve">5.00</t>
   </si>
   <si>
-    <t xml:space="preserve">OIV14770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OO-3512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBL8766</t>
+    <t xml:space="preserve">UMW85011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN-3448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BKL2497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">500</t>
   </si>
   <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1735.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QYV71193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EY-7705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNM3799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
     <t xml:space="preserve">4689.17</t>
   </si>
   <si>
-    <t xml:space="preserve">1641.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUX51596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HI-7010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HVZ6927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1030.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1451.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEO28264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JY-7080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IUB5095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2135.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGA00370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ-7243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSP3819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58525.00</t>
+    <t xml:space="preserve">1458.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLD23777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY-7067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKN1134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2124.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWD68251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC-8253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGN0927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9247.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56135.00</t>
   </si>
   <si>
     <t xml:space="preserve">Popular Fiat</t>
@@ -448,10 +464,10 @@
     <t xml:space="preserve">04/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">59965.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58665.00</t>
+    <t xml:space="preserve">57575.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56275.00</t>
   </si>
   <si>
     <t xml:space="preserve">Finance charges </t>
@@ -463,7 +479,7 @@
     <t xml:space="preserve">Balance payable </t>
   </si>
   <si>
-    <t xml:space="preserve">59384.99</t>
+    <t xml:space="preserve">56994.99</t>
   </si>
   <si>
     <t xml:space="preserve">Initial cash payment inc. document fee </t>
@@ -475,13 +491,19 @@
     <t xml:space="preserve">Final balloon payment </t>
   </si>
   <si>
-    <t xml:space="preserve">DDG87226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS-5742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POQ3082</t>
+    <t xml:space="preserve">FT-5525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UID18368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UT-5802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNB3836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58535.00</t>
   </si>
   <si>
     <t xml:space="preserve">Contract  </t>
@@ -523,400 +545,307 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">BHP04169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD-9967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKE1167</t>
-  </si>
-  <si>
-    <t>FT-5525</t>
-  </si>
-  <si>
-    <t>RNG31402</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+    <t xml:space="preserve">UA-8686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKW22900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO-3009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXN6948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Sales Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oppo ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLI20073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57335.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO-3770</t>
+  </si>
+  <si>
+    <t>DM-2530</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>FSL40187</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Personal Contract Hire</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1661.23</t>
+  </si>
+  <si>
+    <t>KW-6648</t>
+  </si>
+  <si>
+    <t>DZB7244</t>
+  </si>
+  <si>
+    <t>894.17</t>
+  </si>
+  <si>
+    <t>OQR45448</t>
+  </si>
+  <si>
+    <t>AUDI A1 SPORTBACK (2018 - Current) 25 TFSI S Line 5dr</t>
+  </si>
+  <si>
+    <t>Personal Contract Purchase</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>836.28</t>
+  </si>
+  <si>
+    <t>3486.67</t>
+  </si>
+  <si>
+    <t>KT-5775</t>
+  </si>
+  <si>
+    <t>BZF7946</t>
+  </si>
+  <si>
+    <t>UQ-2637</t>
+  </si>
+  <si>
+    <t>REF94691</t>
+  </si>
+  <si>
+    <t>2108.35</t>
+  </si>
+  <si>
+    <t>4689.17</t>
+  </si>
+  <si>
+    <t>IM-2057</t>
+  </si>
+  <si>
+    <t>EDS9918</t>
+  </si>
+  <si>
+    <t>CVY65071</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Popular Fiat</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>5417</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>46237.50</t>
+  </si>
+  <si>
+    <t>9247.50</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>56135.00</t>
+  </si>
+  <si>
+    <t>OE-9883</t>
+  </si>
+  <si>
+    <t>DCZ8943</t>
+  </si>
+  <si>
+    <t>YAM82498</t>
+  </si>
+  <si>
+    <t>LC-3773</t>
+  </si>
+  <si>
+    <t>RID6913</t>
+  </si>
+  <si>
+    <t>PN-2295</t>
+  </si>
+  <si>
+    <t>OKA23620</t>
+  </si>
+  <si>
+    <t>ZR-4578</t>
+  </si>
+  <si>
+    <t>XHP0163</t>
+  </si>
+  <si>
+    <t>05/12/23</t>
+  </si>
+  <si>
+    <t>24.84</t>
+  </si>
+  <si>
+    <t>28.61</t>
+  </si>
+  <si>
+    <t>DSF42421</t>
   </si>
   <si>
     <t>Business Contract Hire</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>Popular Fiat</t>
-  </si>
-  <si>
-    <t>REF001</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>Monthly in advance</t>
-  </si>
-  <si>
-    <t>5417</t>
-  </si>
-  <si>
-    <t>2.00 p</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>48237.50</t>
-  </si>
-  <si>
-    <t>9647.50</t>
-  </si>
-  <si>
-    <t>650.00</t>
-  </si>
-  <si>
-    <t>58535.00</t>
-  </si>
-  <si>
-    <t>SA-8136</t>
-  </si>
-  <si>
-    <t>OFF96570</t>
-  </si>
-  <si>
-    <t>UA-8686</t>
-  </si>
-  <si>
-    <t>DTM54647</t>
-  </si>
-  <si>
-    <t>QJ-1499</t>
-  </si>
-  <si>
-    <t>ADS9685</t>
-  </si>
-  <si>
-    <t>RNS38906</t>
-  </si>
-  <si>
-    <t>KB-8121</t>
-  </si>
-  <si>
-    <t>CSC5751</t>
-  </si>
-  <si>
-    <t>FGN05201</t>
-  </si>
-  <si>
-    <t>SH-0230</t>
-  </si>
-  <si>
-    <t>NOT3771</t>
-  </si>
-  <si>
-    <t>IEU99550</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1460.77</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>ZF-9374</t>
+  </si>
+  <si>
+    <t>UOL3438</t>
+  </si>
+  <si>
+    <t>BR-4194</t>
+  </si>
+  <si>
+    <t>WVO6934</t>
+  </si>
+  <si>
+    <t>LG-0718</t>
+  </si>
+  <si>
+    <t>GSJ8453</t>
+  </si>
+  <si>
+    <t>OL-2835</t>
+  </si>
+  <si>
+    <t>CXJ6139</t>
+  </si>
+  <si>
+    <t>ICE85970</t>
+  </si>
+  <si>
+    <t>RZ-7576</t>
+  </si>
+  <si>
+    <t>BHG0971</t>
+  </si>
+  <si>
+    <t>NAJ88920</t>
+  </si>
+  <si>
+    <t>CZ-7953</t>
+  </si>
+  <si>
+    <t>HES9908</t>
+  </si>
+  <si>
+    <t>EIW11512</t>
   </si>
   <si>
     <t>Hire Purchase Non-Regulated</t>
   </si>
   <si>
-    <t>12</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1524.29</t>
+  </si>
+  <si>
+    <t>469.92</t>
+  </si>
+  <si>
+    <t>RG-0124</t>
+  </si>
+  <si>
+    <t>YSE59053</t>
   </si>
   <si>
     <t>04/12/2024</t>
   </si>
   <si>
-    <t>59975.00</t>
-  </si>
-  <si>
-    <t>900.00</t>
-  </si>
-  <si>
-    <t>58675.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>59394.99</t>
-  </si>
-  <si>
-    <t>1139.99</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>RE-9997</t>
-  </si>
-  <si>
-    <t>PPB3890</t>
-  </si>
-  <si>
-    <t>UID18368</t>
-  </si>
-  <si>
-    <t>Personal Contract Hire</t>
-  </si>
-  <si>
-    <t>UT-5802</t>
-  </si>
-  <si>
-    <t>UNB3836</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>MRU41161</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1597.64</t>
-  </si>
-  <si>
-    <t>05/12/23</t>
-  </si>
-  <si>
-    <t>469.92</t>
-  </si>
-  <si>
-    <t>ZA-8373</t>
-  </si>
-  <si>
-    <t>BDB9238</t>
-  </si>
-  <si>
-    <t>HEZ93804</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1735.85</t>
-  </si>
-  <si>
-    <t>VJ-1854</t>
-  </si>
-  <si>
-    <t>EOH3968</t>
-  </si>
-  <si>
-    <t>ENC32307</t>
-  </si>
-  <si>
-    <t>895.83</t>
-  </si>
-  <si>
-    <t>CTQ51501</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2124.03</t>
-  </si>
-  <si>
-    <t>4689.17</t>
-  </si>
-  <si>
-    <t>MN-3890</t>
-  </si>
-  <si>
-    <t>QJO1880</t>
-  </si>
-  <si>
-    <t>TN-0578</t>
-  </si>
-  <si>
-    <t>VWC6559</t>
-  </si>
-  <si>
-    <t>GGH09117</t>
-  </si>
-  <si>
-    <t>LR-4369</t>
-  </si>
-  <si>
-    <t>NCF8429</t>
-  </si>
-  <si>
-    <t>WNM31071</t>
-  </si>
-  <si>
-    <t>WX-7839</t>
-  </si>
-  <si>
-    <t>XWN0538</t>
-  </si>
-  <si>
-    <t>WWK63105</t>
-  </si>
-  <si>
-    <t>FQ-4517</t>
-  </si>
-  <si>
-    <t>SEM9167</t>
-  </si>
-  <si>
-    <t>DSW44872</t>
-  </si>
-  <si>
-    <t>1451.69</t>
-  </si>
-  <si>
-    <t>QX-6914</t>
-  </si>
-  <si>
-    <t>LRT0099</t>
-  </si>
-  <si>
-    <t>28.61</t>
-  </si>
-  <si>
-    <t>KLW27862</t>
-  </si>
-  <si>
-    <t>1460.77</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>PM-2961</t>
-  </si>
-  <si>
-    <t>PCR8220</t>
-  </si>
-  <si>
-    <t>QDW94671</t>
-  </si>
-  <si>
-    <t>AR-4110</t>
-  </si>
-  <si>
-    <t>QVA69679</t>
-  </si>
-  <si>
-    <t>FR-4265</t>
-  </si>
-  <si>
-    <t>GYF2107</t>
-  </si>
-  <si>
-    <t>IOM31769</t>
-  </si>
-  <si>
-    <t>UUK58004</t>
-  </si>
-  <si>
-    <t>RI-1515</t>
-  </si>
-  <si>
-    <t>NHZ0177</t>
-  </si>
-  <si>
-    <t>OEF93586</t>
-  </si>
-  <si>
-    <t>YP-3291</t>
-  </si>
-  <si>
-    <t>PNC20620</t>
-  </si>
-  <si>
-    <t>SUL50664</t>
-  </si>
-  <si>
-    <t>DI-1297</t>
-  </si>
-  <si>
-    <t>ALD21282</t>
-  </si>
-  <si>
-    <t>POE38764</t>
-  </si>
-  <si>
-    <t>TP-3774</t>
-  </si>
-  <si>
-    <t>DQH41028</t>
-  </si>
-  <si>
-    <t>MG-0526</t>
-  </si>
-  <si>
-    <t>VCL8351</t>
-  </si>
-  <si>
-    <t>UZP73566</t>
-  </si>
-  <si>
-    <t>PV-6864</t>
-  </si>
-  <si>
-    <t>OQU4517</t>
-  </si>
-  <si>
-    <t>1428.33</t>
-  </si>
-  <si>
-    <t>GHH01230</t>
-  </si>
-  <si>
-    <t>1453.37</t>
-  </si>
-  <si>
-    <t>DK-2752</t>
-  </si>
-  <si>
-    <t>FDD9612</t>
-  </si>
-  <si>
-    <t>840.00</t>
-  </si>
-  <si>
-    <t>URL44922</t>
-  </si>
-  <si>
-    <t>1737.88</t>
-  </si>
-  <si>
-    <t>PZ-7848</t>
-  </si>
-  <si>
-    <t>MQ-2581</t>
-  </si>
-  <si>
-    <t>JZH7667</t>
+    <t>KR-4434</t>
+  </si>
+  <si>
+    <t>FSW5727</t>
+  </si>
+  <si>
+    <t>WQY47243</t>
+  </si>
+  <si>
+    <t>57335.00</t>
+  </si>
+  <si>
+    <t>HT-5154</t>
+  </si>
+  <si>
+    <t>PP-3242</t>
+  </si>
+  <si>
+    <t>HR-8442</t>
+  </si>
+  <si>
+    <t>MF-0141</t>
+  </si>
+  <si>
+    <t>QP-3607</t>
+  </si>
+  <si>
+    <t>XFJ09318</t>
+  </si>
+  <si>
+    <t>10125.00</t>
+  </si>
+  <si>
+    <t>EX-6801</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1110,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -1350,7 +1279,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1378,20 +1307,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1443,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,13 +1388,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1423,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1517,7 +1446,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1528,32 +1457,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,16 +1499,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,13 +1516,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,13 +1539,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,16 +1559,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,16 +1581,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,16 +1603,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,16 +1625,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,16 +1645,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,16 +1667,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,16 +1687,16 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,16 +1709,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,11 +1757,11 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1849,14 +1778,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1867,32 +1796,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,30 +1838,30 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,13 +1878,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,13 +1898,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1987,16 +1916,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,16 +1938,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,16 +1960,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,13 +1982,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2075,13 +2004,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2097,16 +2026,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,10 +2120,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2211,14 +2140,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -2229,32 +2158,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,16 +2200,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,13 +2217,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,13 +2240,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2332,13 +2261,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2350,16 +2279,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,16 +2301,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,16 +2323,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,13 +2345,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2438,13 +2367,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2460,16 +2389,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,6 +2484,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2566,7 +2545,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2716,7 +2695,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2747,23 +2726,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,13 +2773,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2815,7 +2794,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,13 +2810,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2845,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -2901,16 +2880,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -2962,31 +2941,31 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +2989,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3018,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -3074,27 +3053,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,31 +3114,31 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,13 +3156,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3191,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3235,7 +3214,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -3243,23 +3222,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>13</v>
@@ -3290,19 +3269,19 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>39</v>
@@ -3311,7 +3290,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,13 +3306,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3341,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3385,7 +3364,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -3398,29 +3377,29 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -3440,16 +3419,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3463,7 +3442,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,7 +3465,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,13 +3479,13 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -3522,16 +3501,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,13 +3523,13 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
@@ -3566,16 +3545,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,16 +3567,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,16 +3587,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,16 +3609,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,13 +3629,13 @@
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -3672,16 +3651,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,7 +3704,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3748,23 +3727,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,13 +3780,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3819,13 +3798,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,13 +3818,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -3875,7 +3854,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3906,16 +3885,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>287</v>
+        <v>125</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3926,7 +3905,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,13 +3946,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3985,13 +3964,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,13 +3988,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>286</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="405">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">1599.47</t>
   </si>
   <si>
-    <t xml:space="preserve">DMB20675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XV-6275</t>
+    <t xml:space="preserve">EIW11512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RG-0124</t>
   </si>
   <si>
     <t xml:space="preserve">YUK5044</t>
   </si>
   <si>
-    <t xml:space="preserve">AUDI A1 SPORTBACK (2018 - Current) 25 TFSI S Line 5dr</t>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
   </si>
   <si>
     <t xml:space="preserve">Hire Purchase Non-Regulated</t>
   </si>
   <si>
-    <t xml:space="preserve">370.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542.55</t>
+    <t xml:space="preserve">469.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1524.29</t>
   </si>
   <si>
     <t xml:space="preserve">QWF65853</t>
@@ -218,31 +218,28 @@
     <t xml:space="preserve">1750.47</t>
   </si>
   <si>
-    <t xml:space="preserve">DZR73353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV-6446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERR4243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1457.11</t>
+    <t xml:space="preserve">NAJ88920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ-7953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HES9908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1460.77</t>
   </si>
   <si>
     <t xml:space="preserve">Funder Specific Expiry Date</t>
   </si>
   <si>
-    <t xml:space="preserve">MID18002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GJ-1641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRM4458</t>
+    <t xml:space="preserve">OKA23620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZR-4578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XHP0163</t>
   </si>
   <si>
     <t xml:space="preserve">Required Finance Deposit</t>
@@ -251,160 +248,163 @@
     <t xml:space="preserve">8000</t>
   </si>
   <si>
+    <t xml:space="preserve">4689.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2108.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTR summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKF23218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZY-7869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTA5949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9647.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL &amp; FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost OTR price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58585.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly total rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogilvie Fleet Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REF001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cash price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60025.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash deposit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">900.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58725.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of monthly payments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional final payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to purchase fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFL included? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00 p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - maint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile – total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE85970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RZ-7576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHG0971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
     <t xml:space="preserve">1030.00</t>
   </si>
   <si>
-    <t xml:space="preserve">2201.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTR summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKF23218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZY-7869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YTA5949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost price ex. VAT &amp; RFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48237.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9647.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL &amp; FRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost OTR price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58585.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly total rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogilvie Fleet Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cash price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60025.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash deposit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">900.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance to finance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">58725.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of monthly payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optional final payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option to purchase fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFL included? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00 p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - maint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile – total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMW85011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NN-3448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BKL2497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
     <t xml:space="preserve">10000</t>
   </si>
   <si>
-    <t xml:space="preserve">1735.85</t>
+    <t xml:space="preserve">1661.23</t>
   </si>
   <si>
     <t xml:space="preserve">QYV71193</t>
@@ -416,16 +416,10 @@
     <t xml:space="preserve">HNM3799</t>
   </si>
   <si>
-    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4689.17</t>
-  </si>
-  <si>
     <t xml:space="preserve">1458.91</t>
   </si>
   <si>
-    <t xml:space="preserve">GLD23777</t>
+    <t xml:space="preserve">EUZ56000</t>
   </si>
   <si>
     <t xml:space="preserve">KY-7067</t>
@@ -494,16 +488,13 @@
     <t xml:space="preserve">FT-5525</t>
   </si>
   <si>
-    <t xml:space="preserve">UID18368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UT-5802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNB3836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58535.00</t>
+    <t xml:space="preserve">CVY65071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OE-9883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCZ8943</t>
   </si>
   <si>
     <t xml:space="preserve">Contract  </t>
@@ -548,13 +539,13 @@
     <t xml:space="preserve">UA-8686</t>
   </si>
   <si>
-    <t xml:space="preserve">LKW22900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO-3009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXN6948</t>
+    <t xml:space="preserve">KHR07343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK-1499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFH2666</t>
   </si>
   <si>
     <t xml:space="preserve">Vehicle Sales Price</t>
@@ -563,25 +554,79 @@
     <t xml:space="preserve">Oppo ID</t>
   </si>
   <si>
-    <t xml:space="preserve">XLI20073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57335.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO-3770</t>
-  </si>
-  <si>
-    <t>DM-2530</t>
+    <t xml:space="preserve">XFJ09318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10125.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX-6801</t>
+  </si>
+  <si>
+    <t>LA-7553</t>
+  </si>
+  <si>
+    <t>JQB41991</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>1863.41</t>
+  </si>
+  <si>
+    <t>05/12/24</t>
+  </si>
+  <si>
+    <t>469.92</t>
+  </si>
+  <si>
+    <t>XK-2426</t>
+  </si>
+  <si>
+    <t>28.61</t>
+  </si>
+  <si>
+    <t>YTF52805</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1460.77</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>PK-2250</t>
+  </si>
+  <si>
+    <t>VOW39247</t>
+  </si>
+  <si>
+    <t>XH-0557</t>
+  </si>
+  <si>
+    <t>TRR4647</t>
   </si>
   <si>
     <t>1030.00</t>
   </si>
   <si>
-    <t>FSL40187</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+    <t>OLU21563</t>
   </si>
   <si>
     <t>Personal Contract Hire</t>
@@ -596,19 +641,13 @@
     <t>1661.23</t>
   </si>
   <si>
-    <t>KW-6648</t>
-  </si>
-  <si>
-    <t>DZB7244</t>
-  </si>
-  <si>
-    <t>894.17</t>
-  </si>
-  <si>
-    <t>OQR45448</t>
-  </si>
-  <si>
-    <t>AUDI A1 SPORTBACK (2018 - Current) 25 TFSI S Line 5dr</t>
+    <t>JK-1646</t>
+  </si>
+  <si>
+    <t>KCM9204</t>
+  </si>
+  <si>
+    <t>RNP38209</t>
   </si>
   <si>
     <t>Personal Contract Purchase</t>
@@ -620,45 +659,90 @@
     <t>35000</t>
   </si>
   <si>
-    <t>836.28</t>
-  </si>
-  <si>
-    <t>3486.67</t>
-  </si>
-  <si>
-    <t>KT-5775</t>
-  </si>
-  <si>
-    <t>BZF7946</t>
-  </si>
-  <si>
-    <t>UQ-2637</t>
-  </si>
-  <si>
-    <t>REF94691</t>
-  </si>
-  <si>
     <t>2108.35</t>
   </si>
   <si>
     <t>4689.17</t>
   </si>
   <si>
-    <t>IM-2057</t>
-  </si>
-  <si>
-    <t>EDS9918</t>
-  </si>
-  <si>
-    <t>CVY65071</t>
+    <t>VKS17509</t>
+  </si>
+  <si>
+    <t>LVI66645</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>2201.31</t>
+  </si>
+  <si>
+    <t>UP-3670</t>
+  </si>
+  <si>
+    <t>MUB5001</t>
+  </si>
+  <si>
+    <t>SBZ83161</t>
+  </si>
+  <si>
+    <t>TN-3298</t>
+  </si>
+  <si>
+    <t>MRT4487</t>
+  </si>
+  <si>
+    <t>ZTQ57587</t>
+  </si>
+  <si>
+    <t>RL-2791</t>
+  </si>
+  <si>
+    <t>ZVY6809</t>
+  </si>
+  <si>
+    <t>PSJ46571</t>
+  </si>
+  <si>
+    <t>1951.42</t>
+  </si>
+  <si>
+    <t>CI-1266</t>
+  </si>
+  <si>
+    <t>GIA1912</t>
+  </si>
+  <si>
+    <t>OPC43393</t>
+  </si>
+  <si>
+    <t>2124.03</t>
+  </si>
+  <si>
+    <t>WU-5088</t>
+  </si>
+  <si>
+    <t>XQD4001</t>
+  </si>
+  <si>
+    <t>OIN12663</t>
+  </si>
+  <si>
+    <t>1503.37</t>
+  </si>
+  <si>
+    <t>CV-6873</t>
+  </si>
+  <si>
+    <t>VIS1495</t>
+  </si>
+  <si>
+    <t>CBD85602</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
     <t>2000.00</t>
   </si>
   <si>
@@ -668,7 +752,7 @@
     <t>REF001</t>
   </si>
   <si>
-    <t>04/12/2023</t>
+    <t>04/12/2024</t>
   </si>
   <si>
     <t>Monthly in advance</t>
@@ -683,169 +767,487 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>46237.50</t>
-  </si>
-  <si>
-    <t>9247.50</t>
+    <t>48237.50</t>
+  </si>
+  <si>
+    <t>9647.50</t>
   </si>
   <si>
     <t>650.00</t>
   </si>
   <si>
-    <t>56135.00</t>
-  </si>
-  <si>
-    <t>OE-9883</t>
-  </si>
-  <si>
-    <t>DCZ8943</t>
-  </si>
-  <si>
-    <t>YAM82498</t>
-  </si>
-  <si>
-    <t>LC-3773</t>
-  </si>
-  <si>
-    <t>RID6913</t>
-  </si>
-  <si>
-    <t>PN-2295</t>
-  </si>
-  <si>
-    <t>OKA23620</t>
-  </si>
-  <si>
-    <t>ZR-4578</t>
-  </si>
-  <si>
-    <t>XHP0163</t>
-  </si>
-  <si>
-    <t>05/12/23</t>
-  </si>
-  <si>
-    <t>24.84</t>
-  </si>
-  <si>
-    <t>28.61</t>
-  </si>
-  <si>
-    <t>DSF42421</t>
-  </si>
-  <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1460.77</t>
-  </si>
-  <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>ZF-9374</t>
-  </si>
-  <si>
-    <t>UOL3438</t>
-  </si>
-  <si>
-    <t>BR-4194</t>
-  </si>
-  <si>
-    <t>WVO6934</t>
-  </si>
-  <si>
-    <t>LG-0718</t>
-  </si>
-  <si>
-    <t>GSJ8453</t>
-  </si>
-  <si>
-    <t>OL-2835</t>
-  </si>
-  <si>
-    <t>CXJ6139</t>
-  </si>
-  <si>
-    <t>ICE85970</t>
-  </si>
-  <si>
-    <t>RZ-7576</t>
-  </si>
-  <si>
-    <t>BHG0971</t>
-  </si>
-  <si>
-    <t>NAJ88920</t>
-  </si>
-  <si>
-    <t>CZ-7953</t>
-  </si>
-  <si>
-    <t>HES9908</t>
-  </si>
-  <si>
-    <t>EIW11512</t>
-  </si>
-  <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1524.29</t>
-  </si>
-  <si>
-    <t>469.92</t>
-  </si>
-  <si>
-    <t>RG-0124</t>
-  </si>
-  <si>
-    <t>YSE59053</t>
-  </si>
-  <si>
-    <t>04/12/2024</t>
-  </si>
-  <si>
-    <t>KR-4434</t>
-  </si>
-  <si>
-    <t>FSW5727</t>
-  </si>
-  <si>
-    <t>WQY47243</t>
-  </si>
-  <si>
-    <t>57335.00</t>
-  </si>
-  <si>
-    <t>HT-5154</t>
-  </si>
-  <si>
-    <t>PP-3242</t>
-  </si>
-  <si>
-    <t>HR-8442</t>
-  </si>
-  <si>
-    <t>MF-0141</t>
-  </si>
-  <si>
-    <t>QP-3607</t>
-  </si>
-  <si>
-    <t>XFJ09318</t>
-  </si>
-  <si>
-    <t>10125.00</t>
-  </si>
-  <si>
-    <t>EX-6801</t>
+    <t>58535.00</t>
+  </si>
+  <si>
+    <t>IE-9011</t>
+  </si>
+  <si>
+    <t>QKB13751</t>
+  </si>
+  <si>
+    <t>UM-2588</t>
+  </si>
+  <si>
+    <t>JLU6338</t>
+  </si>
+  <si>
+    <t>TSP53435</t>
+  </si>
+  <si>
+    <t>59975.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>58675.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>59394.99</t>
+  </si>
+  <si>
+    <t>1139.99</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>XG-0632</t>
+  </si>
+  <si>
+    <t>HIT1677</t>
+  </si>
+  <si>
+    <t>TJY16283</t>
+  </si>
+  <si>
+    <t>MERCEDES-BENZ A CLASS AMG HATCHBACK (2019 - Current) A35 4Matic Premium 5dr Auto</t>
+  </si>
+  <si>
+    <t>18375.00</t>
+  </si>
+  <si>
+    <t>3675.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>22050.00</t>
+  </si>
+  <si>
+    <t>GJ-1095</t>
+  </si>
+  <si>
+    <t>AQ-8937</t>
+  </si>
+  <si>
+    <t>WK-1346</t>
+  </si>
+  <si>
+    <t>ZMH28447</t>
+  </si>
+  <si>
+    <t>930.81</t>
+  </si>
+  <si>
+    <t>EN-3969</t>
+  </si>
+  <si>
+    <t>LZM7652</t>
+  </si>
+  <si>
+    <t>LII19454</t>
+  </si>
+  <si>
+    <t>BW-6964</t>
+  </si>
+  <si>
+    <t>MGT0936</t>
+  </si>
+  <si>
+    <t>HDJ92295</t>
+  </si>
+  <si>
+    <t>YR-4684</t>
+  </si>
+  <si>
+    <t>DRK4465</t>
+  </si>
+  <si>
+    <t>FOS32746</t>
+  </si>
+  <si>
+    <t>ZG-0229</t>
+  </si>
+  <si>
+    <t>GBU8392</t>
+  </si>
+  <si>
+    <t>RMZ26573</t>
+  </si>
+  <si>
+    <t>ZE-9279</t>
+  </si>
+  <si>
+    <t>WYL7019</t>
+  </si>
+  <si>
+    <t>PZR72055</t>
+  </si>
+  <si>
+    <t>488.59</t>
+  </si>
+  <si>
+    <t>IL-2481</t>
+  </si>
+  <si>
+    <t>USZ5498</t>
+  </si>
+  <si>
+    <t>CCL82925</t>
+  </si>
+  <si>
+    <t>OI-1644</t>
+  </si>
+  <si>
+    <t>YY-7831</t>
+  </si>
+  <si>
+    <t>SBF84561</t>
+  </si>
+  <si>
+    <t>ZP-3166</t>
+  </si>
+  <si>
+    <t>AJ-1574</t>
+  </si>
+  <si>
+    <t>ODT94466</t>
+  </si>
+  <si>
+    <t>NF-0020</t>
+  </si>
+  <si>
+    <t>MU-6685</t>
+  </si>
+  <si>
+    <t>TGT03993</t>
+  </si>
+  <si>
+    <t>FV-6915</t>
+  </si>
+  <si>
+    <t>YBX8336</t>
+  </si>
+  <si>
+    <t>EBP82320</t>
+  </si>
+  <si>
+    <t>NU-5523</t>
+  </si>
+  <si>
+    <t>MYL7979</t>
+  </si>
+  <si>
+    <t>QWZ60730</t>
+  </si>
+  <si>
+    <t>1115.40</t>
+  </si>
+  <si>
+    <t>LG-0796</t>
+  </si>
+  <si>
+    <t>NYJ7537</t>
+  </si>
+  <si>
+    <t>RRK47467</t>
+  </si>
+  <si>
+    <t>380.71</t>
+  </si>
+  <si>
+    <t>IV-6837</t>
+  </si>
+  <si>
+    <t>CIH0991</t>
+  </si>
+  <si>
+    <t>WXQ66642</t>
+  </si>
+  <si>
+    <t>ML-2471</t>
+  </si>
+  <si>
+    <t>CHW2727</t>
+  </si>
+  <si>
+    <t>ZPC35454</t>
+  </si>
+  <si>
+    <t>SF-9211</t>
+  </si>
+  <si>
+    <t>WES9766</t>
+  </si>
+  <si>
+    <t>BPR34850</t>
+  </si>
+  <si>
+    <t>NH-0668</t>
+  </si>
+  <si>
+    <t>DFF0265</t>
+  </si>
+  <si>
+    <t>PKF23805</t>
+  </si>
+  <si>
+    <t>FA-8474</t>
+  </si>
+  <si>
+    <t>LUK5637</t>
+  </si>
+  <si>
+    <t>SP-4202</t>
+  </si>
+  <si>
+    <t>IYX7931</t>
+  </si>
+  <si>
+    <t>OIS15750</t>
+  </si>
+  <si>
+    <t>752.61</t>
+  </si>
+  <si>
+    <t>FK-2891</t>
+  </si>
+  <si>
+    <t>TXD6307</t>
+  </si>
+  <si>
+    <t>FQ-1327</t>
+  </si>
+  <si>
+    <t>UHY0320</t>
+  </si>
+  <si>
+    <t>LPV36252</t>
+  </si>
+  <si>
+    <t>YU-5509</t>
+  </si>
+  <si>
+    <t>EIG1035</t>
+  </si>
+  <si>
+    <t>OPQ35288</t>
+  </si>
+  <si>
+    <t>IC-8735</t>
+  </si>
+  <si>
+    <t>QLG2725</t>
+  </si>
+  <si>
+    <t>EZV79567</t>
+  </si>
+  <si>
+    <t>EI-1323</t>
+  </si>
+  <si>
+    <t>SXI6260</t>
+  </si>
+  <si>
+    <t>OBO80318</t>
+  </si>
+  <si>
+    <t>26940.00</t>
+  </si>
+  <si>
+    <t>25640.00</t>
+  </si>
+  <si>
+    <t>26359.99</t>
+  </si>
+  <si>
+    <t>18708.33</t>
+  </si>
+  <si>
+    <t>3741.67</t>
+  </si>
+  <si>
+    <t>22450.00</t>
+  </si>
+  <si>
+    <t>OU-5701</t>
+  </si>
+  <si>
+    <t>CNA3760</t>
+  </si>
+  <si>
+    <t>NQD41742</t>
+  </si>
+  <si>
+    <t>NQG43281</t>
+  </si>
+  <si>
+    <t>01/02/2026</t>
+  </si>
+  <si>
+    <t>26460.00</t>
+  </si>
+  <si>
+    <t>25160.00</t>
+  </si>
+  <si>
+    <t>JZ-7625</t>
+  </si>
+  <si>
+    <t>QIG1286</t>
+  </si>
+  <si>
+    <t>VGR08659</t>
+  </si>
+  <si>
+    <t>1764.11</t>
+  </si>
+  <si>
+    <t>ZL-2102</t>
+  </si>
+  <si>
+    <t>YRG4763</t>
+  </si>
+  <si>
+    <t>KR-4993</t>
+  </si>
+  <si>
+    <t>QMI7996</t>
+  </si>
+  <si>
+    <t>YK-0678</t>
+  </si>
+  <si>
+    <t>QRI4701</t>
+  </si>
+  <si>
+    <t>VDG97847</t>
+  </si>
+  <si>
+    <t>1472.15</t>
+  </si>
+  <si>
+    <t>RD-9667</t>
+  </si>
+  <si>
+    <t>OUO5886</t>
+  </si>
+  <si>
+    <t>LZM76863</t>
+  </si>
+  <si>
+    <t>1750.47</t>
+  </si>
+  <si>
+    <t>WP-3445</t>
+  </si>
+  <si>
+    <t>CIR1645</t>
+  </si>
+  <si>
+    <t>BDA95856</t>
+  </si>
+  <si>
+    <t>TBS85679</t>
+  </si>
+  <si>
+    <t>1529.87</t>
+  </si>
+  <si>
+    <t>YXO76041</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>HD-9323</t>
+  </si>
+  <si>
+    <t>JOL3981</t>
+  </si>
+  <si>
+    <t>YS-5390</t>
+  </si>
+  <si>
+    <t>YY-9130</t>
+  </si>
+  <si>
+    <t>OUO5336</t>
+  </si>
+  <si>
+    <t>WHZ00380</t>
+  </si>
+  <si>
+    <t>QN-3440</t>
+  </si>
+  <si>
+    <t>NQ-6507</t>
+  </si>
+  <si>
+    <t>HSB5193</t>
+  </si>
+  <si>
+    <t>ON-3847</t>
+  </si>
+  <si>
+    <t>AF-9918</t>
+  </si>
+  <si>
+    <t>RDH9583</t>
+  </si>
+  <si>
+    <t>RKY26167</t>
+  </si>
+  <si>
+    <t>FO-3429</t>
+  </si>
+  <si>
+    <t>IUT5924</t>
+  </si>
+  <si>
+    <t>QKR12597</t>
+  </si>
+  <si>
+    <t>BV-6604</t>
+  </si>
+  <si>
+    <t>TRC4209</t>
+  </si>
+  <si>
+    <t>CQ-4870</t>
+  </si>
+  <si>
+    <t>QB-8987</t>
+  </si>
+  <si>
+    <t>YP-3108</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1512,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -1275,11 +1677,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1307,20 +1709,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,13 +1753,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1372,7 +1774,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,13 +1790,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1825,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1446,7 +1848,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1457,32 +1859,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>137</v>
+        <v>351</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,16 +1901,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,13 +1918,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,13 +1941,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,16 +1961,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,16 +1983,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,16 +2005,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>143</v>
+        <v>348</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>99</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,16 +2027,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,16 +2047,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,16 +2069,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,16 +2089,16 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,16 +2111,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,7 +2163,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1778,14 +2180,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -1796,32 +2198,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,30 +2240,30 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,13 +2280,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,13 +2300,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1916,16 +2318,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,16 +2340,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,16 +2362,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,13 +2384,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2004,13 +2406,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="C19" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2026,16 +2428,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,7 +2525,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2140,14 +2542,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -2158,32 +2560,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,16 +2602,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,13 +2619,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,13 +2642,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2261,13 +2663,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2279,16 +2681,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,16 +2703,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,16 +2725,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,13 +2747,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2367,13 +2769,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2389,16 +2791,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,11 +2893,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2506,21 +2908,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2947,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2576,23 +2978,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>404</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,13 +3025,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2644,7 +3046,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,13 +3062,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +3097,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2726,23 +3128,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>398</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,13 +3175,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2794,7 +3196,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,13 +3212,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +3247,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -2880,27 +3282,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>379</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>377</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>378</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,13 +3343,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>56</v>
@@ -2965,7 +3367,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,13 +3385,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3420,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
@@ -3053,27 +3455,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>249</v>
+        <v>373</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,13 +3516,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>56</v>
@@ -3138,7 +3540,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,13 +3558,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>235</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +3593,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3214,7 +3616,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -3222,23 +3624,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>356</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,7 +3654,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>13</v>
@@ -3269,19 +3671,19 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>39</v>
@@ -3290,7 +3692,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,13 +3708,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3743,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3364,7 +3766,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -3377,32 +3779,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,16 +3821,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3436,13 +3838,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,13 +3861,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,13 +3881,13 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -3501,16 +3903,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,16 +3925,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,16 +3947,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>99</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,16 +3969,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,16 +3989,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,16 +4011,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,13 +4031,13 @@
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -3651,16 +4053,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,7 +4106,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3727,23 +4129,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,13 +4182,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3798,13 +4200,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,13 +4220,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -3854,7 +4256,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3885,16 +4287,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3905,7 +4307,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,13 +4348,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3964,13 +4366,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,13 +4390,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="454">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1248,6 +1248,153 @@
   </si>
   <si>
     <t>YP-3108</t>
+  </si>
+  <si>
+    <t>KIX18099</t>
+  </si>
+  <si>
+    <t>NM-2588</t>
+  </si>
+  <si>
+    <t>ZM-2592</t>
+  </si>
+  <si>
+    <t>EMM2518</t>
+  </si>
+  <si>
+    <t>VFC93789</t>
+  </si>
+  <si>
+    <t>IU-5753</t>
+  </si>
+  <si>
+    <t>XOC3139</t>
+  </si>
+  <si>
+    <t>WCT89939</t>
+  </si>
+  <si>
+    <t>613.48</t>
+  </si>
+  <si>
+    <t>OZ-7874</t>
+  </si>
+  <si>
+    <t>FPD3653</t>
+  </si>
+  <si>
+    <t>JR-4512</t>
+  </si>
+  <si>
+    <t>ZUK5301</t>
+  </si>
+  <si>
+    <t>NAM85706</t>
+  </si>
+  <si>
+    <t>AO-3384</t>
+  </si>
+  <si>
+    <t>XQW4169</t>
+  </si>
+  <si>
+    <t>TV-6518</t>
+  </si>
+  <si>
+    <t>JTD5943</t>
+  </si>
+  <si>
+    <t>HGQ01438</t>
+  </si>
+  <si>
+    <t>1451.69</t>
+  </si>
+  <si>
+    <t>OG-0024</t>
+  </si>
+  <si>
+    <t>XPC0399</t>
+  </si>
+  <si>
+    <t>DUB33155</t>
+  </si>
+  <si>
+    <t>SR-4951</t>
+  </si>
+  <si>
+    <t>FGA0105</t>
+  </si>
+  <si>
+    <t>FQK42547</t>
+  </si>
+  <si>
+    <t>UK Automobiles</t>
+  </si>
+  <si>
+    <t>UU-8470</t>
+  </si>
+  <si>
+    <t>IWU62965</t>
+  </si>
+  <si>
+    <t>11Jan05supplier</t>
+  </si>
+  <si>
+    <t>ZF-0626</t>
+  </si>
+  <si>
+    <t>CL-2206</t>
+  </si>
+  <si>
+    <t>OPE35076</t>
+  </si>
+  <si>
+    <t>AU-5106</t>
+  </si>
+  <si>
+    <t>WI-4821</t>
+  </si>
+  <si>
+    <t>WKF12114</t>
+  </si>
+  <si>
+    <t>QX-6569</t>
+  </si>
+  <si>
+    <t>FGS0872</t>
+  </si>
+  <si>
+    <t>NHS00316</t>
+  </si>
+  <si>
+    <t>MM-2913</t>
+  </si>
+  <si>
+    <t>EM-0531</t>
+  </si>
+  <si>
+    <t>QZ-7889</t>
+  </si>
+  <si>
+    <t>XSR5297</t>
+  </si>
+  <si>
+    <t>PRS41861</t>
+  </si>
+  <si>
+    <t>AUDI A1 SPORTBACK (2018 - Current) 25 TFSI Black Edition 5dr</t>
+  </si>
+  <si>
+    <t>754.11</t>
+  </si>
+  <si>
+    <t>371.58</t>
+  </si>
+  <si>
+    <t>ED-0564</t>
+  </si>
+  <si>
+    <t>RTY5109</t>
   </si>
 </sst>
 </file>
@@ -2560,13 +2707,13 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>346</v>
@@ -2684,7 +2831,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>237</v>
+        <v>431</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>90</v>
@@ -2978,23 +3125,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
         <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +3193,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>184</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>223</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3128,23 +3275,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
         <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3196,7 +3343,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,7 +3365,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3455,16 +3602,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -3475,7 +3622,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,7 +3687,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3564,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>372</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3692,7 +3839,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,13 +3926,13 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>357</v>
+        <v>433</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>362</v>
@@ -3906,7 +4053,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>237</v>
+        <v>434</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>90</v>
@@ -4287,16 +4434,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>307</v>
+        <v>443</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>308</v>
+        <v>446</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>309</v>
+        <v>447</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -4307,7 +4454,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4372,7 +4519,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4396,7 +4543,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="720">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1395,6 +1395,804 @@
   </si>
   <si>
     <t>RTY5109</t>
+  </si>
+  <si>
+    <t>IKE16372</t>
+  </si>
+  <si>
+    <t>CS-4239</t>
+  </si>
+  <si>
+    <t>AYE7451</t>
+  </si>
+  <si>
+    <t>DPX37520</t>
+  </si>
+  <si>
+    <t>QE-9218</t>
+  </si>
+  <si>
+    <t>NLZ2567</t>
+  </si>
+  <si>
+    <t>ZEA94322</t>
+  </si>
+  <si>
+    <t>VO-3489</t>
+  </si>
+  <si>
+    <t>PB-9526</t>
+  </si>
+  <si>
+    <t>CUD5174</t>
+  </si>
+  <si>
+    <t>QPX40441</t>
+  </si>
+  <si>
+    <t>1735.85</t>
+  </si>
+  <si>
+    <t>DD-9112</t>
+  </si>
+  <si>
+    <t>UYY7943</t>
+  </si>
+  <si>
+    <t>BVJ63338</t>
+  </si>
+  <si>
+    <t>MS-5680</t>
+  </si>
+  <si>
+    <t>NJQ1916</t>
+  </si>
+  <si>
+    <t>LCD89771</t>
+  </si>
+  <si>
+    <t>AT-5512</t>
+  </si>
+  <si>
+    <t>SWB6170</t>
+  </si>
+  <si>
+    <t>WWO41338</t>
+  </si>
+  <si>
+    <t>1520.84</t>
+  </si>
+  <si>
+    <t>LU-5703</t>
+  </si>
+  <si>
+    <t>SYN78482</t>
+  </si>
+  <si>
+    <t>1272.26</t>
+  </si>
+  <si>
+    <t>DKV14330</t>
+  </si>
+  <si>
+    <t>RS-5036</t>
+  </si>
+  <si>
+    <t>RQW4719</t>
+  </si>
+  <si>
+    <t>BFN91426</t>
+  </si>
+  <si>
+    <t>GH-0108</t>
+  </si>
+  <si>
+    <t>COF31045</t>
+  </si>
+  <si>
+    <t>1624.36</t>
+  </si>
+  <si>
+    <t>JF-0883</t>
+  </si>
+  <si>
+    <t>CR-4125</t>
+  </si>
+  <si>
+    <t>FGY07131</t>
+  </si>
+  <si>
+    <t>FJ-1024</t>
+  </si>
+  <si>
+    <t>JWG62279</t>
+  </si>
+  <si>
+    <t>591.12</t>
+  </si>
+  <si>
+    <t>DR-4069</t>
+  </si>
+  <si>
+    <t>ZMM28847</t>
+  </si>
+  <si>
+    <t>MW-6647</t>
+  </si>
+  <si>
+    <t>CCI83449</t>
+  </si>
+  <si>
+    <t>XV-6603</t>
+  </si>
+  <si>
+    <t>VMC27945</t>
+  </si>
+  <si>
+    <t>YL-2309</t>
+  </si>
+  <si>
+    <t>MHH07047</t>
+  </si>
+  <si>
+    <t>SM-2392</t>
+  </si>
+  <si>
+    <t>WTQ51280</t>
+  </si>
+  <si>
+    <t>QCQ86506</t>
+  </si>
+  <si>
+    <t>708.35</t>
+  </si>
+  <si>
+    <t>UDM99999</t>
+  </si>
+  <si>
+    <t>QR-4534</t>
+  </si>
+  <si>
+    <t>VWV63445</t>
+  </si>
+  <si>
+    <t>IL-2086</t>
+  </si>
+  <si>
+    <t>EU-6964</t>
+  </si>
+  <si>
+    <t>PQR41346</t>
+  </si>
+  <si>
+    <t>TWS62641</t>
+  </si>
+  <si>
+    <t>407.93</t>
+  </si>
+  <si>
+    <t>CO-3000</t>
+  </si>
+  <si>
+    <t>RG-1593</t>
+  </si>
+  <si>
+    <t>VGE0367</t>
+  </si>
+  <si>
+    <t>VVJ69359</t>
+  </si>
+  <si>
+    <t>1146.42</t>
+  </si>
+  <si>
+    <t>PC-8416</t>
+  </si>
+  <si>
+    <t>NGI06056</t>
+  </si>
+  <si>
+    <t>NZ-7098</t>
+  </si>
+  <si>
+    <t>GH-9912</t>
+  </si>
+  <si>
+    <t>LN-3503</t>
+  </si>
+  <si>
+    <t>KJ-1109</t>
+  </si>
+  <si>
+    <t>UKF15008</t>
+  </si>
+  <si>
+    <t>WF-0183</t>
+  </si>
+  <si>
+    <t>HUI4675</t>
+  </si>
+  <si>
+    <t>EDX97546</t>
+  </si>
+  <si>
+    <t>GS-4305</t>
+  </si>
+  <si>
+    <t>JDY9075</t>
+  </si>
+  <si>
+    <t>TRH18831</t>
+  </si>
+  <si>
+    <t>739.58</t>
+  </si>
+  <si>
+    <t>VG-0092</t>
+  </si>
+  <si>
+    <t>DHW7980</t>
+  </si>
+  <si>
+    <t>SMP26777</t>
+  </si>
+  <si>
+    <t>TE-0518</t>
+  </si>
+  <si>
+    <t>NJO1332</t>
+  </si>
+  <si>
+    <t>DIB15608</t>
+  </si>
+  <si>
+    <t>WY-7287</t>
+  </si>
+  <si>
+    <t>VJT1868</t>
+  </si>
+  <si>
+    <t>CSL31970</t>
+  </si>
+  <si>
+    <t>MZ-7312</t>
+  </si>
+  <si>
+    <t>ENG9172</t>
+  </si>
+  <si>
+    <t>JXF76765</t>
+  </si>
+  <si>
+    <t>UZ-7437</t>
+  </si>
+  <si>
+    <t>EPQ3265</t>
+  </si>
+  <si>
+    <t>UZA73699</t>
+  </si>
+  <si>
+    <t>KA-7077</t>
+  </si>
+  <si>
+    <t>IGZ0313</t>
+  </si>
+  <si>
+    <t>OAG82914</t>
+  </si>
+  <si>
+    <t>PE-9963</t>
+  </si>
+  <si>
+    <t>ITP9855</t>
+  </si>
+  <si>
+    <t>KSF48802</t>
+  </si>
+  <si>
+    <t>VUE59021</t>
+  </si>
+  <si>
+    <t>CL-2706</t>
+  </si>
+  <si>
+    <t>FOM6935</t>
+  </si>
+  <si>
+    <t>HYP71433</t>
+  </si>
+  <si>
+    <t>XD-9079</t>
+  </si>
+  <si>
+    <t>ETI5732</t>
+  </si>
+  <si>
+    <t>TFM91295</t>
+  </si>
+  <si>
+    <t>VK-1853</t>
+  </si>
+  <si>
+    <t>HBT9961</t>
+  </si>
+  <si>
+    <t>DDR95386</t>
+  </si>
+  <si>
+    <t>BA-8300</t>
+  </si>
+  <si>
+    <t>VSU5732</t>
+  </si>
+  <si>
+    <t>JPY30223</t>
+  </si>
+  <si>
+    <t>LD-9598</t>
+  </si>
+  <si>
+    <t>QVX6407</t>
+  </si>
+  <si>
+    <t>HFC01684</t>
+  </si>
+  <si>
+    <t>TV-6470</t>
+  </si>
+  <si>
+    <t>GYA7200</t>
+  </si>
+  <si>
+    <t>JIC15304</t>
+  </si>
+  <si>
+    <t>CP-4143</t>
+  </si>
+  <si>
+    <t>RJO15860</t>
+  </si>
+  <si>
+    <t>NO-3566</t>
+  </si>
+  <si>
+    <t>UIC12501</t>
+  </si>
+  <si>
+    <t>TU-5513</t>
+  </si>
+  <si>
+    <t>NEY97212</t>
+  </si>
+  <si>
+    <t>UR-4783</t>
+  </si>
+  <si>
+    <t>UJR14911</t>
+  </si>
+  <si>
+    <t>XV-6044</t>
+  </si>
+  <si>
+    <t>OOA37980</t>
+  </si>
+  <si>
+    <t>KM-2744</t>
+  </si>
+  <si>
+    <t>OYR75612</t>
+  </si>
+  <si>
+    <t>UG-0100</t>
+  </si>
+  <si>
+    <t>SZ-7316</t>
+  </si>
+  <si>
+    <t>RKR14722</t>
+  </si>
+  <si>
+    <t>GC-9668</t>
+  </si>
+  <si>
+    <t>GYK72227</t>
+  </si>
+  <si>
+    <t>DTG52571</t>
+  </si>
+  <si>
+    <t>OP-4822</t>
+  </si>
+  <si>
+    <t>SJS1094</t>
+  </si>
+  <si>
+    <t>FRZ48312</t>
+  </si>
+  <si>
+    <t>AV-6037</t>
+  </si>
+  <si>
+    <t>JPD1371</t>
+  </si>
+  <si>
+    <t>JOU31418</t>
+  </si>
+  <si>
+    <t>JJ-1334</t>
+  </si>
+  <si>
+    <t>BAK8760</t>
+  </si>
+  <si>
+    <t>NNT37647</t>
+  </si>
+  <si>
+    <t>OV-6147</t>
+  </si>
+  <si>
+    <t>YXH6340</t>
+  </si>
+  <si>
+    <t>GBC84974</t>
+  </si>
+  <si>
+    <t>OI-1736</t>
+  </si>
+  <si>
+    <t>NRL43414</t>
+  </si>
+  <si>
+    <t>AE-9024</t>
+  </si>
+  <si>
+    <t>MJA1174</t>
+  </si>
+  <si>
+    <t>MVV66882</t>
+  </si>
+  <si>
+    <t>UMQ26601</t>
+  </si>
+  <si>
+    <t>JE-9565</t>
+  </si>
+  <si>
+    <t>UFP07720</t>
+  </si>
+  <si>
+    <t>MM-2631</t>
+  </si>
+  <si>
+    <t>SB-8183</t>
+  </si>
+  <si>
+    <t>QW-2750</t>
+  </si>
+  <si>
+    <t>WIL19382</t>
+  </si>
+  <si>
+    <t>MU-5392</t>
+  </si>
+  <si>
+    <t>LHR03370</t>
+  </si>
+  <si>
+    <t>QACompany2201</t>
+  </si>
+  <si>
+    <t>IL-2439</t>
+  </si>
+  <si>
+    <t>KVF6428</t>
+  </si>
+  <si>
+    <t>QST51591</t>
+  </si>
+  <si>
+    <t>578.39</t>
+  </si>
+  <si>
+    <t>OZ-7317</t>
+  </si>
+  <si>
+    <t>LBO8321</t>
+  </si>
+  <si>
+    <t>FZZ71176</t>
+  </si>
+  <si>
+    <t>918.83</t>
+  </si>
+  <si>
+    <t>KL-2803</t>
+  </si>
+  <si>
+    <t>XBJ8114</t>
+  </si>
+  <si>
+    <t>WGG05117</t>
+  </si>
+  <si>
+    <t>JK-2633</t>
+  </si>
+  <si>
+    <t>SEV9736</t>
+  </si>
+  <si>
+    <t>DAF75440</t>
+  </si>
+  <si>
+    <t>362.52</t>
+  </si>
+  <si>
+    <t>PN-3337</t>
+  </si>
+  <si>
+    <t>SED9075</t>
+  </si>
+  <si>
+    <t>XBO83598</t>
+  </si>
+  <si>
+    <t>1486.24</t>
+  </si>
+  <si>
+    <t>CR-4691</t>
+  </si>
+  <si>
+    <t>PAP8496</t>
+  </si>
+  <si>
+    <t>JS-4341</t>
+  </si>
+  <si>
+    <t>1423.33</t>
+  </si>
+  <si>
+    <t>HVG60514</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2023 - Current) 40 TDI Quattro Black Ed 5dr S Tronic [Tech pro]</t>
+  </si>
+  <si>
+    <t>1618.75</t>
+  </si>
+  <si>
+    <t>838.33</t>
+  </si>
+  <si>
+    <t>IRX43812</t>
+  </si>
+  <si>
+    <t>2066.72</t>
+  </si>
+  <si>
+    <t>CD-9922</t>
+  </si>
+  <si>
+    <t>SAN8245</t>
+  </si>
+  <si>
+    <t>LDM26456</t>
+  </si>
+  <si>
+    <t>654.35</t>
+  </si>
+  <si>
+    <t>YQA40244</t>
+  </si>
+  <si>
+    <t>1623.96</t>
+  </si>
+  <si>
+    <t>MT-5203</t>
+  </si>
+  <si>
+    <t>1032.50</t>
+  </si>
+  <si>
+    <t>WUF57176</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>2739.00</t>
+  </si>
+  <si>
+    <t>TR-4039</t>
+  </si>
+  <si>
+    <t>KZY2069</t>
+  </si>
+  <si>
+    <t>RHZ06416</t>
+  </si>
+  <si>
+    <t>MERCEDES-BENZ A CLASS AMG HATCHBACK (2019 - 2022) A35 4Matic Premium 5dr Auto</t>
+  </si>
+  <si>
+    <t>757.37</t>
+  </si>
+  <si>
+    <t>DO-3814</t>
+  </si>
+  <si>
+    <t>VE-3500</t>
+  </si>
+  <si>
+    <t>MPF4901</t>
+  </si>
+  <si>
+    <t>MA-8631</t>
+  </si>
+  <si>
+    <t>TAZ7256</t>
+  </si>
+  <si>
+    <t>HR-2631</t>
+  </si>
+  <si>
+    <t>ZJU1946</t>
+  </si>
+  <si>
+    <t>43.02</t>
+  </si>
+  <si>
+    <t>IHY05968</t>
+  </si>
+  <si>
+    <t>1457.11</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>FJ-1424</t>
+  </si>
+  <si>
+    <t>WTV8028</t>
+  </si>
+  <si>
+    <t>ZTN53067</t>
+  </si>
+  <si>
+    <t>1473.37</t>
+  </si>
+  <si>
+    <t>EA-8939</t>
+  </si>
+  <si>
+    <t>IP-3889</t>
+  </si>
+  <si>
+    <t>DEB91244</t>
+  </si>
+  <si>
+    <t>CU-5155</t>
+  </si>
+  <si>
+    <t>KVS6475</t>
+  </si>
+  <si>
+    <t>LPZ39074</t>
+  </si>
+  <si>
+    <t>918.47</t>
+  </si>
+  <si>
+    <t>FG-0901</t>
+  </si>
+  <si>
+    <t>YDJ9450</t>
+  </si>
+  <si>
+    <t>TKD24591</t>
+  </si>
+  <si>
+    <t>1469.65</t>
+  </si>
+  <si>
+    <t>KJ-1517</t>
+  </si>
+  <si>
+    <t>ATO5897</t>
+  </si>
+  <si>
+    <t>WYC73023</t>
+  </si>
+  <si>
+    <t>QQ-4751</t>
+  </si>
+  <si>
+    <t>XKC1011</t>
+  </si>
+  <si>
+    <t>UCP11583</t>
+  </si>
+  <si>
+    <t>391.05</t>
+  </si>
+  <si>
+    <t>FL-2353</t>
+  </si>
+  <si>
+    <t>UHW0277</t>
+  </si>
+  <si>
+    <t>TMK86447</t>
+  </si>
+  <si>
+    <t>722.58</t>
+  </si>
+  <si>
+    <t>SK-1171</t>
+  </si>
+  <si>
+    <t>JDH9923</t>
+  </si>
+  <si>
+    <t>XUN52771</t>
+  </si>
+  <si>
+    <t>907.58</t>
+  </si>
+  <si>
+    <t>NUU58811</t>
+  </si>
+  <si>
+    <t>1100.62</t>
+  </si>
+  <si>
+    <t>BNY30605</t>
+  </si>
+  <si>
+    <t>1761.11</t>
+  </si>
+  <si>
+    <t>FCL83152</t>
+  </si>
+  <si>
+    <t>492.90</t>
+  </si>
+  <si>
+    <t>FEP93188</t>
+  </si>
+  <si>
+    <t>735.31</t>
+  </si>
+  <si>
+    <t>DCB89386</t>
+  </si>
+  <si>
+    <t>596.98</t>
+  </si>
+  <si>
+    <t>RJU16509</t>
+  </si>
+  <si>
+    <t>Siddharth Das 2 Company</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>HK-2568</t>
+  </si>
+  <si>
+    <t>HOD3484</t>
   </si>
 </sst>
 </file>
@@ -1856,20 +2654,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>341</v>
+        <v>697</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>342</v>
+        <v>699</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>343</v>
+        <v>700</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1937,13 +2735,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>315</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -2707,32 +3505,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>430</v>
+        <v>713</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>432</v>
+        <v>718</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>346</v>
+        <v>719</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>268</v>
+        <v>715</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>269</v>
+        <v>716</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +3556,7 @@
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>271</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,7 +3629,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>431</v>
+        <v>714</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>90</v>
@@ -3125,13 +3923,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>412</v>
+        <v>711</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>416</v>
+        <v>613</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>417</v>
@@ -3141,7 +3939,7 @@
         <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>413</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -3275,23 +4073,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>448</v>
+        <v>690</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>452</v>
+        <v>691</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>453</v>
+        <v>692</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
         <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>449</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +4126,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3343,7 +4141,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +4163,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>450</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -3429,13 +4227,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>379</v>
+        <v>705</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>378</v>
@@ -3449,7 +4247,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>267</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,7 +4336,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>364</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -3602,16 +4400,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>440</v>
+        <v>686</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>441</v>
+        <v>688</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>442</v>
+        <v>689</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -3622,7 +4420,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>212</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,7 +4485,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,7 +4509,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>190</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -3771,23 +4569,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>356</v>
+        <v>709</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>339</v>
+        <v>611</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,7 +4637,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,7 +4659,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>333</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -4276,23 +5074,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>310</v>
+        <v>703</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>312</v>
+        <v>607</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>313</v>
+        <v>467</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,7 +5171,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>311</v>
+        <v>704</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -4434,16 +5232,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>443</v>
+        <v>682</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>446</v>
+        <v>684</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>447</v>
+        <v>685</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -4454,7 +5252,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>212</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,7 +5317,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,7 +5341,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>231</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="793">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -2193,6 +2193,225 @@
   </si>
   <si>
     <t>HOD3484</t>
+  </si>
+  <si>
+    <t>KHR07487</t>
+  </si>
+  <si>
+    <t>KJM11150</t>
+  </si>
+  <si>
+    <t>PRE43403</t>
+  </si>
+  <si>
+    <t>DOE33239</t>
+  </si>
+  <si>
+    <t>PO-3774</t>
+  </si>
+  <si>
+    <t>GLR29968</t>
+  </si>
+  <si>
+    <t>1749.09</t>
+  </si>
+  <si>
+    <t>1417.50</t>
+  </si>
+  <si>
+    <t>YO-3224</t>
+  </si>
+  <si>
+    <t>QDF97984</t>
+  </si>
+  <si>
+    <t>1633.96</t>
+  </si>
+  <si>
+    <t>6161.67</t>
+  </si>
+  <si>
+    <t>ZM-2816</t>
+  </si>
+  <si>
+    <t>23.29</t>
+  </si>
+  <si>
+    <t>BCI87039</t>
+  </si>
+  <si>
+    <t>NK-1289</t>
+  </si>
+  <si>
+    <t>VQB42100</t>
+  </si>
+  <si>
+    <t>FB-8931</t>
+  </si>
+  <si>
+    <t>39.38</t>
+  </si>
+  <si>
+    <t>OKC13199</t>
+  </si>
+  <si>
+    <t>TG-0638</t>
+  </si>
+  <si>
+    <t>QWH67881</t>
+  </si>
+  <si>
+    <t>2237.35</t>
+  </si>
+  <si>
+    <t>UJ-1310</t>
+  </si>
+  <si>
+    <t>JWC63721</t>
+  </si>
+  <si>
+    <t>604.2299999999999</t>
+  </si>
+  <si>
+    <t>BM-2847</t>
+  </si>
+  <si>
+    <t>IBM83489</t>
+  </si>
+  <si>
+    <t>732.11</t>
+  </si>
+  <si>
+    <t>442.53000000000003</t>
+  </si>
+  <si>
+    <t>QU-5291</t>
+  </si>
+  <si>
+    <t>YBN81560</t>
+  </si>
+  <si>
+    <t>II-1769</t>
+  </si>
+  <si>
+    <t>SFA00812</t>
+  </si>
+  <si>
+    <t>ZE-9530</t>
+  </si>
+  <si>
+    <t>JF-9708</t>
+  </si>
+  <si>
+    <t>ZGS0321</t>
+  </si>
+  <si>
+    <t>UML23754</t>
+  </si>
+  <si>
+    <t>QB-8760</t>
+  </si>
+  <si>
+    <t>HCY8769</t>
+  </si>
+  <si>
+    <t>PCV89283</t>
+  </si>
+  <si>
+    <t>AX-6879</t>
+  </si>
+  <si>
+    <t>TKD2551</t>
+  </si>
+  <si>
+    <t>CSD45556</t>
+  </si>
+  <si>
+    <t>CU-5895</t>
+  </si>
+  <si>
+    <t>RNJ32513</t>
+  </si>
+  <si>
+    <t>XU-5179</t>
+  </si>
+  <si>
+    <t>VAI87193</t>
+  </si>
+  <si>
+    <t>FE-9647</t>
+  </si>
+  <si>
+    <t>IRY42701</t>
+  </si>
+  <si>
+    <t>MZ-7949</t>
+  </si>
+  <si>
+    <t>ZGW0541</t>
+  </si>
+  <si>
+    <t>HPQ35733</t>
+  </si>
+  <si>
+    <t>HM-2807</t>
+  </si>
+  <si>
+    <t>QCT88137</t>
+  </si>
+  <si>
+    <t>BJ-1873</t>
+  </si>
+  <si>
+    <t>ONU3640</t>
+  </si>
+  <si>
+    <t>JRD42303</t>
+  </si>
+  <si>
+    <t>NF-0007</t>
+  </si>
+  <si>
+    <t>RBW8300</t>
+  </si>
+  <si>
+    <t>KWR66663</t>
+  </si>
+  <si>
+    <t>AG-0493</t>
+  </si>
+  <si>
+    <t>JQO48180</t>
+  </si>
+  <si>
+    <t>SB-8387</t>
+  </si>
+  <si>
+    <t>NSP59334</t>
+  </si>
+  <si>
+    <t>1954.19</t>
+  </si>
+  <si>
+    <t>ZB-2471</t>
+  </si>
+  <si>
+    <t>AIT18109</t>
+  </si>
+  <si>
+    <t>WH-0470</t>
+  </si>
+  <si>
+    <t>TJE12879</t>
+  </si>
+  <si>
+    <t>CS-8086</t>
+  </si>
+  <si>
+    <t>YND39196</t>
+  </si>
+  <si>
+    <t>ZT-3606</t>
   </si>
 </sst>
 </file>
@@ -2804,32 +3023,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>347</v>
+        <v>780</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>781</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>355</v>
+        <v>771</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>351</v>
+        <v>244</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +3074,7 @@
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,7 +3128,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>237</v>
+        <v>615</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>90</v>
@@ -2953,7 +3172,7 @@
         <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>97</v>
@@ -2975,7 +3194,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>143</v>
@@ -2995,7 +3214,7 @@
         <v>145</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>350</v>
+        <v>257</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>147</v>
@@ -3505,32 +3724,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>718</v>
+        <v>778</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>719</v>
+        <v>779</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>715</v>
+        <v>244</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>716</v>
+        <v>245</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>660</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,13 +3769,13 @@
         <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>717</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +3848,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>714</v>
+        <v>615</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>90</v>
@@ -3923,23 +4142,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>711</v>
+        <v>791</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>613</v>
+        <v>792</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>417</v>
+        <v>776</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
         <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>660</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,7 +4210,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>383</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,7 +4232,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>712</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4227,13 +4446,13 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>609</v>
+        <v>788</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>378</v>
@@ -4247,7 +4466,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>660</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,7 +4531,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>270</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,7 +4555,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>706</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4400,16 +4619,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>686</v>
+        <v>753</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>689</v>
+        <v>756</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -4420,7 +4639,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>660</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4704,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>270</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4728,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>687</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4637,7 +4856,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>270</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,13 +5293,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>607</v>
+        <v>786</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>467</v>
@@ -5090,7 +5309,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>660</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,7 +5370,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>270</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,7 +5390,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -5232,16 +5451,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -5252,7 +5471,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>660</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,7 +5536,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>270</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,7 +5560,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="964">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -2412,6 +2412,519 @@
   </si>
   <si>
     <t>ZT-3606</t>
+  </si>
+  <si>
+    <t>EDK96092</t>
+  </si>
+  <si>
+    <t>NC-8110</t>
+  </si>
+  <si>
+    <t>QDR9976</t>
+  </si>
+  <si>
+    <t>ZIP13992</t>
+  </si>
+  <si>
+    <t>YB-8226</t>
+  </si>
+  <si>
+    <t>DKN2591</t>
+  </si>
+  <si>
+    <t>HTH52219</t>
+  </si>
+  <si>
+    <t>JD-9721</t>
+  </si>
+  <si>
+    <t>IBQ8211</t>
+  </si>
+  <si>
+    <t>CWY69867</t>
+  </si>
+  <si>
+    <t>917.46</t>
+  </si>
+  <si>
+    <t>QC-9796</t>
+  </si>
+  <si>
+    <t>DTB5926</t>
+  </si>
+  <si>
+    <t>LOQ39197</t>
+  </si>
+  <si>
+    <t>941.46</t>
+  </si>
+  <si>
+    <t>XG-0210</t>
+  </si>
+  <si>
+    <t>FTZ5283</t>
+  </si>
+  <si>
+    <t>PQR48390</t>
+  </si>
+  <si>
+    <t>BU-5141</t>
+  </si>
+  <si>
+    <t>IBS8536</t>
+  </si>
+  <si>
+    <t>TDC97273</t>
+  </si>
+  <si>
+    <t>1568.65</t>
+  </si>
+  <si>
+    <t>NR-4609</t>
+  </si>
+  <si>
+    <t>NIE5571</t>
+  </si>
+  <si>
+    <t>ZRG47880</t>
+  </si>
+  <si>
+    <t>739.02</t>
+  </si>
+  <si>
+    <t>UN-2934</t>
+  </si>
+  <si>
+    <t>SDL9879</t>
+  </si>
+  <si>
+    <t>ZPA39189</t>
+  </si>
+  <si>
+    <t>756.58</t>
+  </si>
+  <si>
+    <t>HEZ90179</t>
+  </si>
+  <si>
+    <t>QR-4488</t>
+  </si>
+  <si>
+    <t>IEP9248</t>
+  </si>
+  <si>
+    <t>NYM78810</t>
+  </si>
+  <si>
+    <t>DN-3003</t>
+  </si>
+  <si>
+    <t>QRZ4202</t>
+  </si>
+  <si>
+    <t>RCI82469</t>
+  </si>
+  <si>
+    <t>XU-5285</t>
+  </si>
+  <si>
+    <t>WYL7950</t>
+  </si>
+  <si>
+    <t>QDL95188</t>
+  </si>
+  <si>
+    <t>ZN-3829</t>
+  </si>
+  <si>
+    <t>RZY7298</t>
+  </si>
+  <si>
+    <t>XVA66017</t>
+  </si>
+  <si>
+    <t>VB-8268</t>
+  </si>
+  <si>
+    <t>ZMH2042</t>
+  </si>
+  <si>
+    <t>PLB26144</t>
+  </si>
+  <si>
+    <t>SA-5333</t>
+  </si>
+  <si>
+    <t>BGA5654</t>
+  </si>
+  <si>
+    <t>XZL72075</t>
+  </si>
+  <si>
+    <t>BB-8018</t>
+  </si>
+  <si>
+    <t>IVU6798</t>
+  </si>
+  <si>
+    <t>PMD29270</t>
+  </si>
+  <si>
+    <t>CU-5458</t>
+  </si>
+  <si>
+    <t>BZZ7980</t>
+  </si>
+  <si>
+    <t>IUZ54515</t>
+  </si>
+  <si>
+    <t>NT-5119</t>
+  </si>
+  <si>
+    <t>DNV3553</t>
+  </si>
+  <si>
+    <t>LGY00823</t>
+  </si>
+  <si>
+    <t>UN-2421</t>
+  </si>
+  <si>
+    <t>NUI5335</t>
+  </si>
+  <si>
+    <t>EMK22454</t>
+  </si>
+  <si>
+    <t>PU-5031</t>
+  </si>
+  <si>
+    <t>WGT07567</t>
+  </si>
+  <si>
+    <t>IW-6085</t>
+  </si>
+  <si>
+    <t>URN4420</t>
+  </si>
+  <si>
+    <t>JPJ34576</t>
+  </si>
+  <si>
+    <t>FB-8008</t>
+  </si>
+  <si>
+    <t>QSW4226</t>
+  </si>
+  <si>
+    <t>ZXJ73683</t>
+  </si>
+  <si>
+    <t>KM-2681</t>
+  </si>
+  <si>
+    <t>OWL6569</t>
+  </si>
+  <si>
+    <t>NGX04417</t>
+  </si>
+  <si>
+    <t>KE-9321</t>
+  </si>
+  <si>
+    <t>YQL4666</t>
+  </si>
+  <si>
+    <t>BXV76119</t>
+  </si>
+  <si>
+    <t>NP-3418</t>
+  </si>
+  <si>
+    <t>UCM86644</t>
+  </si>
+  <si>
+    <t>AZ-7517</t>
+  </si>
+  <si>
+    <t>OIT1352</t>
+  </si>
+  <si>
+    <t>XTX56190</t>
+  </si>
+  <si>
+    <t>OL-2496</t>
+  </si>
+  <si>
+    <t>XYI7154</t>
+  </si>
+  <si>
+    <t>SLK22882</t>
+  </si>
+  <si>
+    <t>IR-4186</t>
+  </si>
+  <si>
+    <t>PGF0359</t>
+  </si>
+  <si>
+    <t>JRH48179</t>
+  </si>
+  <si>
+    <t>CW-6811</t>
+  </si>
+  <si>
+    <t>KVS6899</t>
+  </si>
+  <si>
+    <t>XXJ74564</t>
+  </si>
+  <si>
+    <t>597.31</t>
+  </si>
+  <si>
+    <t>XK-2921</t>
+  </si>
+  <si>
+    <t>AEG9825</t>
+  </si>
+  <si>
+    <t>KKO10616</t>
+  </si>
+  <si>
+    <t>FY-7774</t>
+  </si>
+  <si>
+    <t>MMG2289</t>
+  </si>
+  <si>
+    <t>GUK59996</t>
+  </si>
+  <si>
+    <t>WR-4013</t>
+  </si>
+  <si>
+    <t>ONP3651</t>
+  </si>
+  <si>
+    <t>FUH52723</t>
+  </si>
+  <si>
+    <t>WW-6144</t>
+  </si>
+  <si>
+    <t>XOH39959</t>
+  </si>
+  <si>
+    <t>YQ-4415</t>
+  </si>
+  <si>
+    <t>FEB92752</t>
+  </si>
+  <si>
+    <t>UI-1182</t>
+  </si>
+  <si>
+    <t>REW97158</t>
+  </si>
+  <si>
+    <t>725.01</t>
+  </si>
+  <si>
+    <t>DS-5832</t>
+  </si>
+  <si>
+    <t>HRE47306</t>
+  </si>
+  <si>
+    <t>1748.78</t>
+  </si>
+  <si>
+    <t>ML-2820</t>
+  </si>
+  <si>
+    <t>WWP65525</t>
+  </si>
+  <si>
+    <t>1633.65</t>
+  </si>
+  <si>
+    <t>TN-3100</t>
+  </si>
+  <si>
+    <t>AVE6354</t>
+  </si>
+  <si>
+    <t>KQS43692</t>
+  </si>
+  <si>
+    <t>OV-6418</t>
+  </si>
+  <si>
+    <t>RWP6036</t>
+  </si>
+  <si>
+    <t>MNE39405</t>
+  </si>
+  <si>
+    <t>1951.05</t>
+  </si>
+  <si>
+    <t>DB-8180</t>
+  </si>
+  <si>
+    <t>IJQ1665</t>
+  </si>
+  <si>
+    <t>MMP21544</t>
+  </si>
+  <si>
+    <t>2198.01</t>
+  </si>
+  <si>
+    <t>HO-3728</t>
+  </si>
+  <si>
+    <t>DZV7449</t>
+  </si>
+  <si>
+    <t>XEO92635</t>
+  </si>
+  <si>
+    <t>UC-8955</t>
+  </si>
+  <si>
+    <t>ZQP4424</t>
+  </si>
+  <si>
+    <t>UVV62245</t>
+  </si>
+  <si>
+    <t>1417.68</t>
+  </si>
+  <si>
+    <t>CIW16506</t>
+  </si>
+  <si>
+    <t>6161.75</t>
+  </si>
+  <si>
+    <t>OMM28552</t>
+  </si>
+  <si>
+    <t>ZBD87939</t>
+  </si>
+  <si>
+    <t>ZJ-1910</t>
+  </si>
+  <si>
+    <t>YJ-1419</t>
+  </si>
+  <si>
+    <t>EO-3915</t>
+  </si>
+  <si>
+    <t>LFY0404</t>
+  </si>
+  <si>
+    <t>TZP77714</t>
+  </si>
+  <si>
+    <t>KXO60412</t>
+  </si>
+  <si>
+    <t>ZFM04430</t>
+  </si>
+  <si>
+    <t>IE-9801</t>
+  </si>
+  <si>
+    <t>SGZ03473</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>TM-2704</t>
+  </si>
+  <si>
+    <t>MXI6024</t>
+  </si>
+  <si>
+    <t>WGX03719</t>
+  </si>
+  <si>
+    <t>NX-6332</t>
+  </si>
+  <si>
+    <t>XPF3701</t>
+  </si>
+  <si>
+    <t>LKJ12876</t>
+  </si>
+  <si>
+    <t>KS-5606</t>
+  </si>
+  <si>
+    <t>ZSZ4559</t>
+  </si>
+  <si>
+    <t>ZLN27282</t>
+  </si>
+  <si>
+    <t>ZN-3269</t>
+  </si>
+  <si>
+    <t>GGA0836</t>
+  </si>
+  <si>
+    <t>ZJL18652</t>
+  </si>
+  <si>
+    <t>NY-7727</t>
+  </si>
+  <si>
+    <t>UTP9342</t>
+  </si>
+  <si>
+    <t>ETH54422</t>
+  </si>
+  <si>
+    <t>OL-2284</t>
+  </si>
+  <si>
+    <t>GFX0735</t>
+  </si>
+  <si>
+    <t>ALK21103</t>
+  </si>
+  <si>
+    <t>2198.42</t>
+  </si>
+  <si>
+    <t>DI-1050</t>
+  </si>
+  <si>
+    <t>ILD2275</t>
+  </si>
+  <si>
+    <t>1253.16</t>
+  </si>
+  <si>
+    <t>SSI48652</t>
+  </si>
+  <si>
+    <t>BMW 1 SERIES DIESEL HATCHBACK (2019 - Current) 116d M Sport 5dr Step Auto [LCP/Pro pk]</t>
+  </si>
+  <si>
+    <t>727.49</t>
+  </si>
+  <si>
+    <t>BEM93986</t>
+  </si>
+  <si>
+    <t>551.45</t>
   </si>
 </sst>
 </file>
@@ -2873,20 +3386,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>697</v>
+        <v>959</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>699</v>
+        <v>956</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>700</v>
+        <v>957</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>660</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2938,7 +3451,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>270</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,13 +3467,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>698</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -3724,16 +4237,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>777</v>
+        <v>926</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>778</v>
+        <v>929</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>779</v>
+        <v>930</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -4292,23 +4805,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>690</v>
+        <v>951</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>691</v>
+        <v>952</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>692</v>
+        <v>953</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
         <v>183</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>660</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,7 +4858,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -4360,7 +4873,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>383</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4382,7 +4895,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>676</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4446,16 +4959,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>787</v>
+        <v>878</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>788</v>
+        <v>879</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>378</v>
+        <v>880</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -4619,16 +5132,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>753</v>
+        <v>948</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>755</v>
+        <v>949</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>756</v>
+        <v>950</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -5293,16 +5806,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>784</v>
+        <v>875</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>786</v>
+        <v>876</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>467</v>
+        <v>877</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -5451,16 +5964,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>760</v>
+        <v>962</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>761</v>
+        <v>946</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>762</v>
+        <v>947</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -5471,7 +5984,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>212</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5518,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -5536,7 +6049,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>731</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5554,13 +6067,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>730</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
